--- a/P3.xlsx
+++ b/P3.xlsx
@@ -81,7 +81,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1250071982657313</v>
+        <v>0.1250063831781389</v>
       </c>
     </row>
     <row r="3">
@@ -89,7 +89,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09244212137090486</v>
+        <v>0.09243985863667538</v>
       </c>
     </row>
     <row r="4">
@@ -97,7 +97,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.004855620553328826</v>
+        <v>-0.004858526790465061</v>
       </c>
     </row>
     <row r="5">
@@ -105,7 +105,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.17355800035187655</v>
+        <v>-0.17355962360721017</v>
       </c>
     </row>
     <row r="6">
@@ -113,7 +113,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.272606454968304</v>
+        <v>-0.27260566002189884</v>
       </c>
     </row>
     <row r="7">
@@ -121,7 +121,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.17622938779712774</v>
+        <v>-0.17622750748405014</v>
       </c>
     </row>
     <row r="8">
@@ -129,7 +129,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09967639435207497</v>
+        <v>0.09967658078862165</v>
       </c>
     </row>
     <row r="9">
@@ -137,7 +137,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.36458666659424854</v>
+        <v>0.364583664842438</v>
       </c>
     </row>
     <row r="10">
@@ -145,7 +145,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.38769072610160554</v>
+        <v>0.387685736463905</v>
       </c>
     </row>
     <row r="11">
@@ -153,7 +153,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09899425097575873</v>
+        <v>0.09899032979926217</v>
       </c>
     </row>
     <row r="12">
@@ -161,7 +161,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3172249983646118</v>
+        <v>-0.3172246329064325</v>
       </c>
     </row>
     <row r="13">
@@ -169,7 +169,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5388924584419676</v>
+        <v>-0.5388864397239863</v>
       </c>
     </row>
     <row r="14">
@@ -177,7 +177,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.35947779228484267</v>
+        <v>-0.3594691610800087</v>
       </c>
     </row>
     <row r="15">
@@ -185,7 +185,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12422888018771787</v>
+        <v>0.12423356612135704</v>
       </c>
     </row>
     <row r="16">
@@ -193,7 +193,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.557640536932087</v>
+        <v>0.5576369552112264</v>
       </c>
     </row>
     <row r="17">
@@ -201,7 +201,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5923728820745875</v>
+        <v>0.5923630226515825</v>
       </c>
     </row>
     <row r="18">
@@ -209,7 +209,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16876587125356693</v>
+        <v>0.168757071506313</v>
       </c>
     </row>
     <row r="19">
@@ -217,7 +217,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.4139356748794055</v>
+        <v>-0.4139334848590161</v>
       </c>
     </row>
     <row r="20">
@@ -225,7 +225,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.7116515869380077</v>
+        <v>-0.7116302898813943</v>
       </c>
     </row>
     <row r="21">
@@ -233,7 +233,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.4782040295692616</v>
+        <v>-0.47816677324858975</v>
       </c>
     </row>
     <row r="22">
@@ -241,7 +241,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131106726755856</v>
+        <v>0.13114043458511118</v>
       </c>
     </row>
     <row r="23">
@@ -249,7 +249,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6633715214035169</v>
+        <v>0.663378468543802</v>
       </c>
     </row>
     <row r="24">
@@ -257,7 +257,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7091186078244132</v>
+        <v>0.7090922305162932</v>
       </c>
     </row>
     <row r="25">
@@ -265,7 +265,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.22020469007614057</v>
+        <v>0.2201663046663626</v>
       </c>
     </row>
     <row r="26">
@@ -273,7 +273,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.44435316143253956</v>
+        <v>-0.4443568264048341</v>
       </c>
     </row>
     <row r="27">
@@ -281,7 +281,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.7856744094439271</v>
+        <v>-0.7855924970670979</v>
       </c>
     </row>
     <row r="28">
@@ -289,7 +289,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.54340762883577</v>
+        <v>-0.5432334529791765</v>
       </c>
     </row>
     <row r="29">
@@ -297,7 +297,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10476912299726134</v>
+        <v>0.10496001181445722</v>
       </c>
     </row>
     <row r="30">
@@ -305,7 +305,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6759863879818298</v>
+        <v>0.6760704978388576</v>
       </c>
     </row>
     <row r="31">
@@ -313,7 +313,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7459021203105203</v>
+        <v>0.7458087433997442</v>
       </c>
     </row>
     <row r="32">
@@ -321,7 +321,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26619349983551577</v>
+        <v>0.2659981926846972</v>
       </c>
     </row>
     <row r="33">
@@ -329,7 +329,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.40338227670643806</v>
+        <v>-0.4034456935984285</v>
       </c>
     </row>
     <row r="34">
@@ -337,7 +337,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7682503043348633</v>
+        <v>-0.7679077256535463</v>
       </c>
     </row>
     <row r="35">
@@ -345,7 +345,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5673164520582643</v>
+        <v>-0.5664928064235958</v>
       </c>
     </row>
     <row r="36">
@@ -353,7 +353,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>0.040238113809211606</v>
+        <v>0.04122467446980655</v>
       </c>
     </row>
     <row r="37">
@@ -361,7 +361,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6031045240205695</v>
+        <v>0.6036517638928773</v>
       </c>
     </row>
     <row r="38">
@@ -369,7 +369,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7162472441317019</v>
+        <v>0.7159303695994993</v>
       </c>
     </row>
     <row r="39">
@@ -377,7 +377,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31337830612372886</v>
+        <v>0.3124649369225105</v>
       </c>
     </row>
     <row r="40">
@@ -385,7 +385,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.29836395276117367</v>
+        <v>-0.29878688426127015</v>
       </c>
     </row>
     <row r="41">
@@ -393,7 +393,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.6751942857561549</v>
+        <v>-0.6737754958744581</v>
       </c>
     </row>
     <row r="42">
@@ -401,7 +401,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.5603987258082425</v>
+        <v>-0.5566341628974638</v>
       </c>
     </row>
     <row r="43">
@@ -409,7 +409,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.057544252130274615</v>
+        <v>-0.052694413572446905</v>
       </c>
     </row>
     <row r="44">
@@ -417,7 +417,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4620728863164642</v>
+        <v>0.46531308648195063</v>
       </c>
     </row>
     <row r="45">
@@ -425,7 +425,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6356506947723288</v>
+        <v>0.6350744334414936</v>
       </c>
     </row>
     <row r="46">
@@ -433,7 +433,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3617133939244053</v>
+        <v>0.35802730050383164</v>
       </c>
     </row>
     <row r="47">
@@ -441,7 +441,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1460915403572386</v>
+        <v>-0.14836313754780187</v>
       </c>
     </row>
     <row r="48">
@@ -449,7 +449,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5270284851734783</v>
+        <v>-0.5216789363049299</v>
       </c>
     </row>
     <row r="49">
@@ -457,7 +457,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.5299893289497004</v>
+        <v>-0.5138443893025713</v>
       </c>
     </row>
     <row r="50">
@@ -465,7 +465,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.17597095766339713</v>
+        <v>-0.1531485902034329</v>
       </c>
     </row>
     <row r="51">
@@ -473,7 +473,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27595449220975937</v>
+        <v>0.294470427103885</v>
       </c>
     </row>
     <row r="52">
@@ -481,7 +481,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5191108880156762</v>
+        <v>0.5225526670942805</v>
       </c>
     </row>
     <row r="53">
@@ -489,7 +489,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4054508943427618</v>
+        <v>0.3936595638640462</v>
       </c>
     </row>
     <row r="54">
@@ -497,7 +497,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.030590337887094237</v>
+        <v>0.019809488622174392</v>
       </c>
     </row>
     <row r="55">
@@ -505,7 +505,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.34624403496833184</v>
+        <v>-0.32947621880040795</v>
       </c>
     </row>
     <row r="56">
@@ -513,7 +513,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4806622746087769</v>
+        <v>-0.417630819350167</v>
       </c>
     </row>
     <row r="57">
@@ -521,7 +521,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2979789966298204</v>
+        <v>-0.19749793357900977</v>
       </c>
     </row>
     <row r="58">
@@ -529,7 +529,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07024607180085216</v>
+        <v>0.16748674662872834</v>
       </c>
     </row>
     <row r="59">
@@ -537,7 +537,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.38067883671861796</v>
+        <v>0.4247384477582516</v>
       </c>
     </row>
     <row r="60">
@@ -545,7 +545,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.43608532870133476</v>
+        <v>0.4102797886006448</v>
       </c>
     </row>
     <row r="61">
@@ -553,7 +553,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2068523533118665</v>
+        <v>0.1610905722427568</v>
       </c>
     </row>
     <row r="62">
@@ -561,7 +561,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.15521104576142392</v>
+        <v>-0.11602800095431046</v>
       </c>
     </row>
     <row r="63">
@@ -569,7 +569,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.41517481369958886</v>
+        <v>-0.2006241224111103</v>
       </c>
     </row>
     <row r="64">
@@ -577,7 +577,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.40384520829966386</v>
+        <v>-0.02960404021200385</v>
       </c>
     </row>
     <row r="65">
@@ -585,7 +585,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.12612605282443012</v>
+        <v>0.25209629109782394</v>
       </c>
     </row>
     <row r="66">
@@ -593,7 +593,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.23907002775603423</v>
+        <v>0.4177955672229103</v>
       </c>
     </row>
     <row r="67">
@@ -601,7 +601,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.45087851655472594</v>
+        <v>0.36713268801090676</v>
       </c>
     </row>
     <row r="68">
@@ -609,7 +609,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.36350855891531497</v>
+        <v>0.21706774139305135</v>
       </c>
     </row>
     <row r="69">
@@ -617,7 +617,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.027579538413542482</v>
+        <v>0.16134110628534284</v>
       </c>
     </row>
     <row r="70">
@@ -625,7 +625,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3353378978004211</v>
+        <v>0.23888151474145855</v>
       </c>
     </row>
     <row r="71">
@@ -633,7 +633,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.47624625771775314</v>
+        <v>0.3085747966843945</v>
       </c>
     </row>
     <row r="72">
@@ -641,7 +641,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.28969928396685735</v>
+        <v>0.2864435210999318</v>
       </c>
     </row>
     <row r="73">
@@ -649,7 +649,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10572781255962935</v>
+        <v>0.2815410322859797</v>
       </c>
     </row>
     <row r="74">
@@ -657,7 +657,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.44053663480837857</v>
+        <v>0.3825882335251466</v>
       </c>
     </row>
     <row r="75">
@@ -665,7 +665,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.47795547390834175</v>
+        <v>0.4608736465173374</v>
       </c>
     </row>
     <row r="76">
@@ -673,7 +673,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18268357524869275</v>
+        <v>0.3698693778204006</v>
       </c>
     </row>
     <row r="77">
@@ -681,7 +681,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.2465312401401457</v>
+        <v>0.20103389061687876</v>
       </c>
     </row>
     <row r="78">
@@ -689,7 +689,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5099239751704819</v>
+        <v>0.1494435660813565</v>
       </c>
     </row>
     <row r="79">
@@ -697,7 +697,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.41731417628631234</v>
+        <v>0.23609246144203494</v>
       </c>
     </row>
     <row r="80">
@@ -705,7 +705,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.027213952039727502</v>
+        <v>0.3240289031115772</v>
       </c>
     </row>
     <row r="81">
@@ -713,7 +713,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3892662564055932</v>
+        <v>0.32700896354370373</v>
       </c>
     </row>
     <row r="82">
@@ -721,7 +721,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5379394072587743</v>
+        <v>0.2757048517633694</v>
       </c>
     </row>
     <row r="83">
@@ -729,7 +729,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.31027404371893275</v>
+        <v>0.21745156037591906</v>
       </c>
     </row>
     <row r="84">
@@ -737,7 +737,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1376663032558573</v>
+        <v>0.14597867760328856</v>
       </c>
     </row>
     <row r="85">
@@ -745,7 +745,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.4931422544729399</v>
+        <v>0.04541504918124355</v>
       </c>
     </row>
     <row r="86">
@@ -753,7 +753,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.5064079399467174</v>
+        <v>-0.043388674116543506</v>
       </c>
     </row>
     <row r="87">
@@ -761,7 +761,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.16666410121632289</v>
+        <v>-0.0391109053663443</v>
       </c>
     </row>
     <row r="88">
@@ -769,7 +769,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2900104868455459</v>
+        <v>0.09054731457286505</v>
       </c>
     </row>
     <row r="89">
@@ -777,7 +777,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5453697229294335</v>
+        <v>0.2652865462318755</v>
       </c>
     </row>
     <row r="90">
@@ -785,7 +785,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4208910101387787</v>
+        <v>0.33302055244530204</v>
       </c>
     </row>
     <row r="91">
@@ -793,7 +793,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0022766813164958894</v>
+        <v>0.19449448262193222</v>
       </c>
     </row>
     <row r="92">
@@ -801,7 +801,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.4199168663312408</v>
+        <v>-0.09294184571756658</v>
       </c>
     </row>
     <row r="93">
@@ -809,7 +809,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.5521705116419079</v>
+        <v>-0.3320835534278636</v>
       </c>
     </row>
     <row r="94">
@@ -817,7 +817,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3019823687102621</v>
+        <v>-0.3278647083128432</v>
       </c>
     </row>
     <row r="95">
@@ -825,7 +825,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.15773526788579217</v>
+        <v>-0.050150814575710315</v>
       </c>
     </row>
     <row r="96">
@@ -833,7 +833,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5083775944259185</v>
+        <v>0.31743108276653476</v>
       </c>
     </row>
     <row r="97">
@@ -841,7 +841,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5065713247076659</v>
+        <v>0.4972161224430664</v>
       </c>
     </row>
     <row r="98">
@@ -849,7 +849,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153141743995634</v>
+        <v>0.3274654018286438</v>
       </c>
     </row>
     <row r="99">
@@ -857,7 +857,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.3071737570039677</v>
+        <v>-0.0975852578734598</v>
       </c>
     </row>
     <row r="100">
@@ -865,7 +865,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.5552431712083656</v>
+        <v>-0.47700113888345763</v>
       </c>
     </row>
     <row r="101">
@@ -873,7 +873,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.41883836976447486</v>
+        <v>-0.5197087763077657</v>
       </c>
     </row>
     <row r="102">
@@ -881,7 +881,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.007811567935565156</v>
+        <v>-0.17065559129613359</v>
       </c>
     </row>
     <row r="103">
@@ -889,7 +889,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.42919328857265227</v>
+        <v>0.33042813157560724</v>
       </c>
     </row>
     <row r="104">
@@ -897,7 +897,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5532940841722717</v>
+        <v>0.6144471864511968</v>
       </c>
     </row>
     <row r="105">
@@ -905,7 +905,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>0.29403676591539296</v>
+        <v>0.45737130279359683</v>
       </c>
     </row>
     <row r="106">
@@ -913,7 +913,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.16901073301897285</v>
+        <v>-0.04246555382462426</v>
       </c>
     </row>
     <row r="107">
@@ -921,7 +921,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.5150616405187062</v>
+        <v>-0.5251001956186123</v>
       </c>
     </row>
     <row r="108">
@@ -929,7 +929,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.5044196727860957</v>
+        <v>-0.6310232728613391</v>
       </c>
     </row>
     <row r="109">
@@ -937,7 +937,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1445374175894047</v>
+        <v>-0.2716800762260842</v>
       </c>
     </row>
     <row r="110">
@@ -945,7 +945,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.315248478739322</v>
+        <v>0.29709369609924263</v>
       </c>
     </row>
     <row r="111">
@@ -953,7 +953,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.556542861591927</v>
+        <v>0.6590542117725182</v>
       </c>
     </row>
     <row r="112">
@@ -961,7 +961,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4124199284288448</v>
+        <v>0.545093507995129</v>
       </c>
     </row>
     <row r="113">
@@ -969,7 +969,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.01711991145264591</v>
+        <v>0.0350540403761741</v>
       </c>
     </row>
     <row r="114">
@@ -977,7 +977,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.4345919012643412</v>
+        <v>-0.4985137530107864</v>
       </c>
     </row>
     <row r="115">
@@ -985,7 +985,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.5511083127240584</v>
+        <v>-0.6645620374508507</v>
       </c>
     </row>
     <row r="116">
@@ -993,7 +993,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.2863076485527167</v>
+        <v>-0.3421937703826159</v>
       </c>
     </row>
     <row r="117">
@@ -1001,7 +1001,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.17624628381682306</v>
+        <v>0.2309813387416264</v>
       </c>
     </row>
     <row r="118">
@@ -1009,7 +1009,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5163370913690383</v>
+        <v>0.6357290715817437</v>
       </c>
     </row>
     <row r="119">
@@ -1017,7 +1017,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4987501760155576</v>
+        <v>0.5808113497415119</v>
       </c>
     </row>
     <row r="120">
@@ -1025,7 +1025,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>0.13589053828058364</v>
+        <v>0.1155288401057028</v>
       </c>
     </row>
     <row r="121">
@@ -1033,7 +1033,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.32100094343024743</v>
+        <v>-0.41079293972828024</v>
       </c>
     </row>
     <row r="122">
@@ -1041,7 +1041,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.5557952252031747</v>
+        <v>-0.6100707276853492</v>
       </c>
     </row>
     <row r="123">
@@ -1049,7 +1049,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4062159629361305</v>
+        <v>-0.3423217442228186</v>
       </c>
     </row>
     <row r="124">
@@ -1057,7 +1057,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.023959664316734276</v>
+        <v>0.1848907531102609</v>
       </c>
     </row>
     <row r="125">
@@ -1065,7 +1065,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4367655652460777</v>
+        <v>0.5772250337213534</v>
       </c>
     </row>
     <row r="126">
@@ -1073,7 +1073,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5462211005874196</v>
+        <v>0.5533470229254263</v>
       </c>
     </row>
     <row r="127">
@@ -1081,7 +1081,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2763263073803022</v>
+        <v>0.15732982010353</v>
       </c>
     </row>
     <row r="128">
@@ -1089,7 +1089,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.18606381568282496</v>
+        <v>-0.2799619673138633</v>
       </c>
     </row>
     <row r="129">
@@ -1097,7 +1097,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.5203171785328045</v>
+        <v>-0.4051231449763902</v>
       </c>
     </row>
     <row r="130">
@@ -1105,7 +1105,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.49424402121083905</v>
+        <v>-0.12809988395552466</v>
       </c>
     </row>
     <row r="131">
@@ -1113,7 +1113,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1256082097821218</v>
+        <v>0.305262638356402</v>
       </c>
     </row>
     <row r="132">
@@ -1121,7 +1121,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.329521706442318</v>
+        <v>0.5297336946422734</v>
       </c>
     </row>
     <row r="133">
@@ -1129,7 +1129,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5542921896489934</v>
+        <v>0.3935961699150157</v>
       </c>
     </row>
     <row r="134">
@@ -1137,7 +1137,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.391927681479443</v>
+        <v>0.09948068522416924</v>
       </c>
     </row>
     <row r="135">
@@ -1145,7 +1145,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.044093665244370195</v>
+        <v>-0.012139109329933735</v>
       </c>
     </row>
     <row r="136">
@@ -1153,7 +1153,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.448474037852348</v>
+        <v>0.15739447414768762</v>
       </c>
     </row>
     <row r="137">
@@ -1161,7 +1161,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.5377461252677344</v>
+        <v>0.35807693833061577</v>
       </c>
     </row>
     <row r="138">
@@ -1169,7 +1169,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.24979368835436627</v>
+        <v>0.3395042029294721</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>2.710505431213761E-20</v>
       </c>
     </row>
     <row r="2">
@@ -1198,7 +1198,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.048539073599195515</v>
+        <v>0.048536415531461714</v>
       </c>
     </row>
     <row r="3">
@@ -1206,7 +1206,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.10289020053606027</v>
+        <v>-0.10289284836532502</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1214,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.30049199824706685</v>
+        <v>-0.3004914867060494</v>
       </c>
     </row>
     <row r="5">
@@ -1222,7 +1222,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.32056394645602304</v>
+        <v>-0.32055958590626416</v>
       </c>
     </row>
     <row r="6">
@@ -1230,7 +1230,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02887799362920151</v>
+        <v>-0.02887362031310686</v>
       </c>
     </row>
     <row r="7">
@@ -1238,7 +1238,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.41054944746582483</v>
+        <v>0.41054886536360946</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6245555870652983</v>
+        <v>0.6245498799189461</v>
       </c>
     </row>
     <row r="9">
@@ -1254,7 +1254,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35046724270058816</v>
+        <v>0.35046118778157725</v>
       </c>
     </row>
     <row r="10">
@@ -1262,7 +1262,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2850814641261775</v>
+        <v>-0.2850827002085845</v>
       </c>
     </row>
     <row r="11">
@@ -1270,7 +1270,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8040073244392796</v>
+        <v>-0.8040017671111039</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7439493329080311</v>
+        <v>-0.743938291363891</v>
       </c>
     </row>
     <row r="13">
@@ -1286,7 +1286,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06667954713943908</v>
+        <v>-0.06666947806919399</v>
       </c>
     </row>
     <row r="14">
@@ -1294,7 +1294,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7504909844087556</v>
+        <v>0.7504900226971094</v>
       </c>
     </row>
     <row r="15">
@@ -1302,7 +1302,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0562448105023976</v>
+        <v>1.0562307754316829</v>
       </c>
     </row>
     <row r="16">
@@ -1310,7 +1310,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5505793270223798</v>
+        <v>0.5505630372978392</v>
       </c>
     </row>
     <row r="17">
@@ -1318,7 +1318,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.43428367532010687</v>
+        <v>-0.4342901969463881</v>
       </c>
     </row>
     <row r="18">
@@ -1326,7 +1326,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.152413299039039</v>
+        <v>-1.152401696538123</v>
       </c>
     </row>
     <row r="19">
@@ -1334,7 +1334,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.0174691158206697</v>
+        <v>-1.0174370711088494</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1342,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0836180177526398</v>
+        <v>-0.08357732099603363</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1350,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9618002631238486</v>
+        <v>0.9618172111065173</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1358,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>1.3116782648426288</v>
+        <v>1.3116455611960198</v>
       </c>
     </row>
     <row r="23">
@@ -1366,7 +1366,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6689262011437418</v>
+        <v>0.6688577026516884</v>
       </c>
     </row>
     <row r="24">
@@ -1374,7 +1374,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.503741887370691</v>
+        <v>-0.5037970773913323</v>
       </c>
     </row>
     <row r="25">
@@ -1382,7 +1382,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.3222257104321116</v>
+        <v>-1.3222095789700545</v>
       </c>
     </row>
     <row r="26">
@@ -1390,7 +1390,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.1555101626749014</v>
+        <v>-1.1553845741817546</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.11550082191582782</v>
+        <v>-0.11529885020526154</v>
       </c>
     </row>
     <row r="28">
@@ -1406,7 +1406,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>1.020357098938167</v>
+        <v>1.0204938206031857</v>
       </c>
     </row>
     <row r="29">
@@ -1414,7 +1414,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1.397751936187821</v>
+        <v>1.397663705145303</v>
       </c>
     </row>
     <row r="30">
@@ -1422,7 +1422,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7337801604911031</v>
+        <v>0.7334594018614273</v>
       </c>
     </row>
     <row r="31">
@@ -1430,7 +1430,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4713975409615998</v>
+        <v>-0.4717350335342544</v>
       </c>
     </row>
     <row r="32">
@@ -1438,7 +1438,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.3172556044970338</v>
+        <v>-1.3172686289235926</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.1824024691259023</v>
+        <v>-1.1818434971344494</v>
       </c>
     </row>
     <row r="34">
@@ -1454,7 +1454,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.18308967299196857</v>
+        <v>-0.18209171797941054</v>
       </c>
     </row>
     <row r="35">
@@ -1462,7 +1462,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9289133198856288</v>
+        <v>0.929697345438484</v>
       </c>
     </row>
     <row r="36">
@@ -1470,7 +1470,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>1.338187643024031</v>
+        <v>1.3379468492333189</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1478,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7673671370128543</v>
+        <v>0.7659073913359082</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.3381114856344634</v>
+        <v>-0.3398636428363123</v>
       </c>
     </row>
     <row r="39">
@@ -1494,7 +1494,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.162078547008226</v>
+        <v>-1.1624146484255256</v>
       </c>
     </row>
     <row r="40">
@@ -1502,7 +1502,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.1248798612513498</v>
+        <v>-1.1224720247684885</v>
       </c>
     </row>
     <row r="41">
@@ -1510,7 +1510,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.29048028405886295</v>
+        <v>-0.28580778488619557</v>
       </c>
     </row>
     <row r="42">
@@ -1518,7 +1518,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7115957439357341</v>
+        <v>0.7156730774326476</v>
       </c>
     </row>
     <row r="43">
@@ -1526,7 +1526,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1.1657190363368137</v>
+        <v>1.165443488432739</v>
       </c>
     </row>
     <row r="44">
@@ -1534,7 +1534,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7824411689439691</v>
+        <v>0.7764187808243571</v>
       </c>
     </row>
     <row r="45">
@@ -1542,7 +1542,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.12385765278786177</v>
+        <v>-0.13207669709925215</v>
       </c>
     </row>
     <row r="46">
@@ -1550,7 +1550,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.8943418335078619</v>
+        <v>-0.8971781270761078</v>
       </c>
     </row>
     <row r="47">
@@ -1558,7 +1558,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.0070853420778099</v>
+        <v>-0.997930463133205</v>
       </c>
     </row>
     <row r="48">
@@ -1566,7 +1566,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4270023074492309</v>
+        <v>-0.40669072531889583</v>
       </c>
     </row>
     <row r="49">
@@ -1574,7 +1574,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.40679446937875985</v>
+        <v>0.4270666483913921</v>
       </c>
     </row>
     <row r="50">
@@ -1582,7 +1582,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9158068729542151</v>
+        <v>0.9197050171941593</v>
       </c>
     </row>
     <row r="51">
@@ -1590,7 +1590,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7820626473230963</v>
+        <v>0.76087456631521</v>
       </c>
     </row>
     <row r="52">
@@ -1598,7 +1598,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.138156721108313</v>
+        <v>0.10273930003068864</v>
       </c>
     </row>
     <row r="53">
@@ -1606,7 +1606,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.5578870235691351</v>
+        <v>-0.5775009408388829</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.8485425807815788</v>
+        <v>-0.8209984797845444</v>
       </c>
     </row>
     <row r="55">
@@ -1622,7 +1622,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5716699402928831</v>
+        <v>-0.4915367378227985</v>
       </c>
     </row>
     <row r="56">
@@ -1630,7 +1630,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06016701479530818</v>
+        <v>0.15537575447634783</v>
       </c>
     </row>
     <row r="57">
@@ -1638,7 +1638,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6231981126143039</v>
+        <v>0.6661659314028162</v>
       </c>
     </row>
     <row r="58">
@@ -1646,7 +1646,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7627997916367917</v>
+        <v>0.7030026992378755</v>
       </c>
     </row>
     <row r="59">
@@ -1654,7 +1654,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4087626847793736</v>
+        <v>0.2671812212958695</v>
       </c>
     </row>
     <row r="60">
@@ -1662,7 +1662,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.19748682495781017</v>
+        <v>-0.3115603218190662</v>
       </c>
     </row>
     <row r="61">
@@ -1670,7 +1670,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.6652405352146862</v>
+        <v>-0.610476692074502</v>
       </c>
     </row>
     <row r="62">
@@ -1678,7 +1678,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.6992614381463473</v>
+        <v>-0.41807757056114986</v>
       </c>
     </row>
     <row r="63">
@@ -1686,7 +1686,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.2802233642331695</v>
+        <v>0.10275690151504582</v>
       </c>
     </row>
     <row r="64">
@@ -1694,7 +1694,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3239270253614162</v>
+        <v>0.5283182853117051</v>
       </c>
     </row>
     <row r="65">
@@ -1702,7 +1702,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7232264341780319</v>
+        <v>0.5148652770829603</v>
       </c>
     </row>
     <row r="66">
@@ -1710,7 +1710,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6514992098966816</v>
+        <v>0.11072009575679365</v>
       </c>
     </row>
     <row r="67">
@@ -1718,7 +1718,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.14337543484840146</v>
+        <v>-0.26897432933812293</v>
       </c>
     </row>
     <row r="68">
@@ -1726,7 +1726,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.4750950882234803</v>
+        <v>-0.2571674786577731</v>
       </c>
     </row>
     <row r="69">
@@ -1734,7 +1734,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.7895011631024362</v>
+        <v>0.048620491512696984</v>
       </c>
     </row>
     <row r="70">
@@ -1742,7 +1742,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.5728329010293075</v>
+        <v>0.20430577489616264</v>
       </c>
     </row>
     <row r="71">
@@ -1750,7 +1750,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04737905819964228</v>
+        <v>0.040103173342364004</v>
       </c>
     </row>
     <row r="72">
@@ -1758,7 +1758,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6566217302785257</v>
+        <v>-0.08276864639679385</v>
       </c>
     </row>
     <row r="73">
@@ -1766,7 +1766,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8284553363025424</v>
+        <v>0.10209636754569495</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4255736147367534</v>
+        <v>0.2501251542567276</v>
       </c>
     </row>
     <row r="75">
@@ -1782,7 +1782,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.28891436045524677</v>
+        <v>0.0025453337487523833</v>
       </c>
     </row>
     <row r="76">
@@ -1790,7 +1790,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.8210212193496685</v>
+        <v>-0.3297512373530138</v>
       </c>
     </row>
     <row r="77">
@@ -1798,7 +1798,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.7880894080371555</v>
+        <v>-0.26835864980922103</v>
       </c>
     </row>
     <row r="78">
@@ -1806,7 +1806,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1968813045802727</v>
+        <v>0.0675013907215499</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5464974461549112</v>
+        <v>0.22429221116430414</v>
       </c>
     </row>
     <row r="80">
@@ -1822,7 +1822,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9164860917240267</v>
+        <v>0.09657601975336746</v>
       </c>
     </row>
     <row r="81">
@@ -1830,7 +1830,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6436076961732687</v>
+        <v>-0.06980203426097677</v>
       </c>
     </row>
     <row r="82">
@@ -1838,7 +1838,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.08803035371396997</v>
+        <v>-0.11686365886083719</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.766609999796497</v>
+        <v>-0.12032405251615315</v>
       </c>
     </row>
     <row r="84">
@@ -1854,7 +1854,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9127392398426717</v>
+        <v>-0.17368445139692784</v>
       </c>
     </row>
     <row r="85">
@@ -1862,7 +1862,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.4193767765704155</v>
+        <v>-0.21433401907403757</v>
       </c>
     </row>
     <row r="86">
@@ -1870,7 +1870,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>0.37019743593945914</v>
+        <v>-0.11020987576720319</v>
       </c>
     </row>
     <row r="87">
@@ -1878,7 +1878,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9039729644944915</v>
+        <v>0.14065120898489208</v>
       </c>
     </row>
     <row r="88">
@@ -1886,7 +1886,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8084126953219699</v>
+        <v>0.3497412423890164</v>
       </c>
     </row>
     <row r="89">
@@ -1894,7 +1894,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1489012311896421</v>
+        <v>0.2937854152640077</v>
       </c>
     </row>
     <row r="90">
@@ -1902,7 +1902,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.6160471563758241</v>
+        <v>-0.05995295919642953</v>
       </c>
     </row>
     <row r="91">
@@ -1910,7 +1910,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9540704968716838</v>
+        <v>-0.4745134128547541</v>
       </c>
     </row>
     <row r="92">
@@ -1918,7 +1918,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.6293003599200536</v>
+        <v>-0.6041931756285064</v>
       </c>
     </row>
     <row r="93">
@@ -1926,7 +1926,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13350517263056635</v>
+        <v>-0.281180577700268</v>
       </c>
     </row>
     <row r="94">
@@ -1934,7 +1934,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8051730632643161</v>
+        <v>0.3100377367953668</v>
       </c>
     </row>
     <row r="95">
@@ -1942,7 +1942,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9193057804124231</v>
+        <v>0.7351996610123669</v>
       </c>
     </row>
     <row r="96">
@@ -1950,7 +1950,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3958742291731502</v>
+        <v>0.6346983619452442</v>
       </c>
     </row>
     <row r="97">
@@ -1958,7 +1958,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.40281474683374824</v>
+        <v>0.02519730326318821</v>
       </c>
     </row>
     <row r="98">
@@ -1966,7 +1966,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9230407523122701</v>
+        <v>-0.671037226923914</v>
       </c>
     </row>
     <row r="99">
@@ -1974,7 +1974,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.8036390825922186</v>
+        <v>-0.9207769994282216</v>
       </c>
     </row>
     <row r="100">
@@ -1982,7 +1982,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1267967661182891</v>
+        <v>-0.4913507978715956</v>
       </c>
     </row>
     <row r="101">
@@ -1990,7 +1990,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6385909236293538</v>
+        <v>0.34114870035824923</v>
       </c>
     </row>
     <row r="102">
@@ -1998,7 +1998,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9619127634991881</v>
+        <v>0.9690177821309023</v>
       </c>
     </row>
     <row r="103">
@@ -2006,7 +2006,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6187717953550155</v>
+        <v>0.9020119271968352</v>
       </c>
     </row>
     <row r="104">
@@ -2014,7 +2014,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1532744436128346</v>
+        <v>0.15270223894327092</v>
       </c>
     </row>
     <row r="105">
@@ -2022,7 +2022,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.8192864907590518</v>
+        <v>-0.7460097011962408</v>
       </c>
     </row>
     <row r="106">
@@ -2030,7 +2030,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9177330263204782</v>
+        <v>-1.12356279387332</v>
       </c>
     </row>
     <row r="107">
@@ -2038,7 +2038,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3804157831748573</v>
+        <v>-0.6769980822840554</v>
       </c>
     </row>
     <row r="108">
@@ -2046,7 +2046,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4203038749432627</v>
+        <v>0.28560471210276456</v>
       </c>
     </row>
     <row r="109">
@@ -2054,7 +2054,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9297057070132982</v>
+        <v>1.0596283829042947</v>
       </c>
     </row>
     <row r="110">
@@ -2062,7 +2062,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7951314555403984</v>
+        <v>1.0652164748681192</v>
       </c>
     </row>
     <row r="111">
@@ -2070,7 +2070,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.11012540671614424</v>
+        <v>0.285364021098071</v>
       </c>
     </row>
     <row r="112">
@@ -2078,7 +2078,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.6507086282157332</v>
+        <v>-0.7125004313607319</v>
       </c>
     </row>
     <row r="113">
@@ -2086,7 +2086,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.960649908483986</v>
+        <v>-1.193224347868331</v>
       </c>
     </row>
     <row r="114">
@@ -2094,7 +2094,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.6055316748126726</v>
+        <v>-0.7999048061230255</v>
       </c>
     </row>
     <row r="115">
@@ -2102,7 +2102,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.16830522309176574</v>
+        <v>0.1793086512111064</v>
       </c>
     </row>
     <row r="116">
@@ -2110,7 +2110,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8249909700451086</v>
+        <v>1.0243417599454114</v>
       </c>
     </row>
     <row r="117">
@@ -2118,7 +2118,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9102704162470272</v>
+        <v>1.1170414747596369</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3656617640653758</v>
+        <v>0.3969380987463209</v>
       </c>
     </row>
     <row r="119">
@@ -2134,7 +2134,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.43154779639880136</v>
+        <v>-0.5986470291601064</v>
       </c>
     </row>
     <row r="120">
@@ -2142,7 +2142,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9296970726692796</v>
+        <v>-1.1362706730224759</v>
       </c>
     </row>
     <row r="121">
@@ -2150,7 +2150,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.7843849678200885</v>
+        <v>-0.8289334051754456</v>
       </c>
     </row>
     <row r="122">
@@ -2158,7 +2158,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.09654234450418334</v>
+        <v>0.08219323869455787</v>
       </c>
     </row>
     <row r="123">
@@ -2166,7 +2166,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6576027645435196</v>
+        <v>0.913597904016386</v>
       </c>
     </row>
     <row r="124">
@@ -2174,7 +2174,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9561375807757174</v>
+        <v>1.0525806169429122</v>
       </c>
     </row>
     <row r="125">
@@ -2182,7 +2182,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5924209521620838</v>
+        <v>0.41500266178128037</v>
       </c>
     </row>
     <row r="126">
@@ -2190,7 +2190,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.18189268703237488</v>
+        <v>-0.4944064546901992</v>
       </c>
     </row>
     <row r="127">
@@ -2198,7 +2198,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.830621624446237</v>
+        <v>-0.9694633548400939</v>
       </c>
     </row>
     <row r="128">
@@ -2206,7 +2206,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.9038246562849904</v>
+        <v>-0.6510775715893289</v>
       </c>
     </row>
     <row r="129">
@@ -2214,7 +2214,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3498014501406122</v>
+        <v>0.18331567036431606</v>
       </c>
     </row>
     <row r="130">
@@ -2222,7 +2222,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.44774450916022396</v>
+        <v>0.8347002713309994</v>
       </c>
     </row>
     <row r="131">
@@ -2230,7 +2230,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9348670360617243</v>
+        <v>0.7641789250303768</v>
       </c>
     </row>
     <row r="132">
@@ -2238,7 +2238,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.771840193819469</v>
+        <v>0.07743560213299269</v>
       </c>
     </row>
     <row r="133">
@@ -2246,7 +2246,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07089010803948013</v>
+        <v>-0.5462272897483735</v>
       </c>
     </row>
     <row r="134">
@@ -2254,7 +2254,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.6796216836278317</v>
+        <v>-0.5015443701320408</v>
       </c>
     </row>
     <row r="135">
@@ -2262,7 +2262,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.9547718152307375</v>
+        <v>0.09283318507200107</v>
       </c>
     </row>
     <row r="136">
@@ -2270,7 +2270,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.5608403950822939</v>
+        <v>0.48783835191649555</v>
       </c>
     </row>
     <row r="137">
@@ -2278,7 +2278,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22608881664543834</v>
+        <v>0.21549009597707883</v>
       </c>
     </row>
     <row r="138">
@@ -2286,7 +2286,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8527168485280423</v>
+        <v>-0.24445758229604114</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2315,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.661101609882879E-4</v>
+        <v>3.661101600600751E-4</v>
       </c>
     </row>
     <row r="3">
@@ -2323,7 +2323,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0012152330745511157</v>
+        <v>0.00121523307320528</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0019747351838750133</v>
+        <v>0.001974735193143393</v>
       </c>
     </row>
     <row r="5">
@@ -2339,7 +2339,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002144378355812914</v>
+        <v>0.0021443783987433822</v>
       </c>
     </row>
     <row r="6">
@@ -2347,7 +2347,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001643567921044003</v>
+        <v>0.0016435680103954891</v>
       </c>
     </row>
     <row r="7">
@@ -2355,7 +2355,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.664488544429157E-4</v>
+        <v>8.664489825638812E-4</v>
       </c>
     </row>
     <row r="8">
@@ -2363,7 +2363,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>4.099833077405325E-4</v>
+        <v>4.0998346372320615E-4</v>
       </c>
     </row>
     <row r="9">
@@ -2371,7 +2371,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6.624613795207768E-4</v>
+        <v>6.624615606895638E-4</v>
       </c>
     </row>
     <row r="10">
@@ -2379,7 +2379,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001535235431568386</v>
+        <v>0.001535235653629394</v>
       </c>
     </row>
     <row r="11">
@@ -2387,7 +2387,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0025248172680346556</v>
+        <v>0.00252481755762986</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2395,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0030646314788670896</v>
+        <v>0.0030646318859954697</v>
       </c>
     </row>
     <row r="13">
@@ -2403,7 +2403,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002919342778654911</v>
+        <v>0.0029193433059371593</v>
       </c>
     </row>
     <row r="14">
@@ -2411,7 +2411,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0023475082570199673</v>
+        <v>0.002347508854627635</v>
       </c>
     </row>
     <row r="15">
@@ -2419,7 +2419,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001924411440108328</v>
+        <v>0.0019244120358402619</v>
       </c>
     </row>
     <row r="16">
@@ -2427,7 +2427,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002147269717527004</v>
+        <v>0.0021472702051425615</v>
       </c>
     </row>
     <row r="17">
@@ -2435,7 +2435,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0030928876959192535</v>
+        <v>0.0030928882034661305</v>
       </c>
     </row>
     <row r="18">
@@ -2443,7 +2443,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.004367734697041473</v>
+        <v>0.00436773541662844</v>
       </c>
     </row>
     <row r="19">
@@ -2451,7 +2451,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005387811902362536</v>
+        <v>0.005387813112733058</v>
       </c>
     </row>
     <row r="20">
@@ -2459,7 +2459,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005788049619479053</v>
+        <v>0.005788051631291241</v>
       </c>
     </row>
     <row r="21">
@@ -2467,7 +2467,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.005676197316043169</v>
+        <v>0.00567619992093824</v>
       </c>
     </row>
     <row r="22">
@@ -2475,7 +2475,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005561872238208111</v>
+        <v>0.005561874846958461</v>
       </c>
     </row>
     <row r="23">
@@ -2483,7 +2483,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006009172963278451</v>
+        <v>0.006009174788352342</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2491,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007251221493587053</v>
+        <v>0.007251222456384714</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2499,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.009038651554064477</v>
+        <v>0.00903865290104214</v>
       </c>
     </row>
     <row r="26">
@@ -2507,7 +2507,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.010827670218781922</v>
+        <v>0.01082767482462646</v>
       </c>
     </row>
     <row r="27">
@@ -2515,7 +2515,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01216715818960055</v>
+        <v>0.012167168904767506</v>
       </c>
     </row>
     <row r="28">
@@ -2523,7 +2523,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.013016728334321112</v>
+        <v>0.013016744990330462</v>
       </c>
     </row>
     <row r="29">
@@ -2531,7 +2531,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01378330476373212</v>
+        <v>0.01378332170339208</v>
       </c>
     </row>
     <row r="30">
@@ -2539,7 +2539,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.015048619273266351</v>
+        <v>0.015048626532634923</v>
       </c>
     </row>
     <row r="31">
@@ -2547,7 +2547,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017178485737417294</v>
+        <v>0.017178477608661084</v>
       </c>
     </row>
     <row r="32">
@@ -2555,7 +2555,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02009430330193268</v>
+        <v>0.020094290697570058</v>
       </c>
     </row>
     <row r="33">
@@ -2563,7 +2563,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.023359299550413423</v>
+        <v>0.02335931380444614</v>
       </c>
     </row>
     <row r="34">
@@ -2571,7 +2571,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02650320514112584</v>
+        <v>0.026503280613575434</v>
       </c>
     </row>
     <row r="35">
@@ -2579,7 +2579,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.029365399886418484</v>
+        <v>0.02936554032333791</v>
       </c>
     </row>
     <row r="36">
@@ -2587,7 +2587,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>0.032227972123127974</v>
+        <v>0.03222811995558571</v>
       </c>
     </row>
     <row r="37">
@@ -2595,7 +2595,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.035640034428825865</v>
+        <v>0.035640074672234776</v>
       </c>
     </row>
     <row r="38">
@@ -2603,7 +2603,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04006460523596437</v>
+        <v>0.04006445185924323</v>
       </c>
     </row>
     <row r="39">
@@ -2611,7 +2611,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.045612080349907866</v>
+        <v>0.045611827814230635</v>
       </c>
     </row>
     <row r="40">
@@ -2619,7 +2619,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05202937639336083</v>
+        <v>0.05202935517909281</v>
       </c>
     </row>
     <row r="41">
@@ -2627,7 +2627,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05892470790405821</v>
+        <v>0.05892530190258518</v>
       </c>
     </row>
     <row r="42">
@@ -2635,7 +2635,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06608441175769791</v>
+        <v>0.06608571039549917</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07367488863144588</v>
+        <v>0.0736763606255229</v>
       </c>
     </row>
     <row r="44">
@@ -2651,7 +2651,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.082175728846345</v>
+        <v>0.08217620417877763</v>
       </c>
     </row>
     <row r="45">
@@ -2659,7 +2659,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09210620490394492</v>
+        <v>0.09210465755204869</v>
       </c>
     </row>
     <row r="46">
@@ -2667,7 +2667,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.10376987422757522</v>
+        <v>0.10376695464256078</v>
       </c>
     </row>
     <row r="47">
@@ -2675,7 +2675,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11717319586846422</v>
+        <v>0.11717201319334258</v>
       </c>
     </row>
     <row r="48">
@@ -2683,7 +2683,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.13212996977501523</v>
+        <v>0.13213455793398485</v>
       </c>
     </row>
     <row r="49">
@@ -2691,7 +2691,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.14849337549791955</v>
+        <v>0.14850536347794105</v>
       </c>
     </row>
     <row r="50">
@@ -2699,7 +2699,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1663756501225612</v>
+        <v>0.16639102456794866</v>
       </c>
     </row>
     <row r="51">
@@ -2707,7 +2707,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.18617936490621748</v>
+        <v>0.18618782852114454</v>
       </c>
     </row>
     <row r="52">
@@ -2715,7 +2715,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2084255003405668</v>
+        <v>0.20841634306917814</v>
       </c>
     </row>
     <row r="53">
@@ -2723,7 +2723,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.23354699200531934</v>
+        <v>0.2335220222658714</v>
       </c>
     </row>
     <row r="54">
@@ -2731,7 +2731,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.26178119219980434</v>
+        <v>0.2617638845776151</v>
       </c>
     </row>
     <row r="55">
@@ -2739,7 +2739,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2931713785915658</v>
+        <v>0.29319757861603535</v>
       </c>
     </row>
     <row r="56">
@@ -2747,7 +2747,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32766907403146056</v>
+        <v>0.32776039592377404</v>
       </c>
     </row>
     <row r="57">
@@ -2755,7 +2755,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.36529508624232726</v>
+        <v>0.3654322558354838</v>
       </c>
     </row>
     <row r="58">
@@ -2763,7 +2763,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4062190900050545</v>
+        <v>0.4063353634602245</v>
       </c>
     </row>
     <row r="59">
@@ -2771,7 +2771,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.45066426824233047</v>
+        <v>0.45067940160582</v>
       </c>
     </row>
     <row r="60">
@@ -2779,7 +2779,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.49872209277758317</v>
+        <v>0.4986178826476818</v>
       </c>
     </row>
     <row r="61">
@@ -2787,7 +2787,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5502052070089114</v>
+        <v>0.550080688011154</v>
       </c>
     </row>
     <row r="62">
@@ -2795,7 +2795,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6045627789036113</v>
+        <v>0.6045817187422863</v>
       </c>
     </row>
     <row r="63">
@@ -2803,7 +2803,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6608780473731743</v>
+        <v>0.6611348707558857</v>
       </c>
     </row>
     <row r="64">
@@ -2811,7 +2811,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7180287217577855</v>
+        <v>0.71848028706572</v>
       </c>
     </row>
     <row r="65">
@@ -2819,7 +2819,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7749674065499872</v>
+        <v>0.7755064363108796</v>
       </c>
     </row>
     <row r="66">
@@ -2827,7 +2827,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8308841066572993</v>
+        <v>0.8314617131765001</v>
       </c>
     </row>
     <row r="67">
@@ -2835,7 +2835,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8850687131703364</v>
+        <v>0.8857028944247614</v>
       </c>
     </row>
     <row r="68">
@@ -2843,7 +2843,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9365565787209247</v>
+        <v>0.937134314840973</v>
       </c>
     </row>
     <row r="69">
@@ -2851,7 +2851,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.983819155897463</v>
+        <v>0.9839454456440436</v>
       </c>
     </row>
     <row r="70">
@@ -2859,7 +2859,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0247884661355546</v>
+        <v>1.024175853200215</v>
       </c>
     </row>
     <row r="71">
@@ -2867,7 +2867,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0573967049100412</v>
+        <v>1.0564876387953428</v>
       </c>
     </row>
     <row r="72">
@@ -2875,7 +2875,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>1.080404689776761</v>
+        <v>1.080182662339515</v>
       </c>
     </row>
     <row r="73">
@@ -2883,7 +2883,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1.093849948555632</v>
+        <v>1.0948384368157944</v>
       </c>
     </row>
     <row r="74">
@@ -2891,7 +2891,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>1.098648458718417</v>
+        <v>1.100430635287221</v>
       </c>
     </row>
     <row r="75">
@@ -2899,7 +2899,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1.0956537710603762</v>
+        <v>1.0974884448684286</v>
       </c>
     </row>
     <row r="76">
@@ -2907,7 +2907,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0849370749001843</v>
+        <v>1.086366830818819</v>
       </c>
     </row>
     <row r="77">
@@ -2915,7 +2915,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0658002133272062</v>
+        <v>1.0666508505505061</v>
       </c>
     </row>
     <row r="78">
@@ -2923,7 +2923,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>1.0374984166741383</v>
+        <v>1.0378392368066391</v>
       </c>
     </row>
     <row r="79">
@@ -2931,7 +2931,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1.0001819841697466</v>
+        <v>1.0004275925493755</v>
       </c>
     </row>
     <row r="80">
@@ -2939,7 +2939,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9553082677336641</v>
+        <v>0.955980821831149</v>
       </c>
     </row>
     <row r="81">
@@ -2947,7 +2947,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9051269658581458</v>
+        <v>0.9064291648959345</v>
       </c>
     </row>
     <row r="82">
@@ -2955,7 +2955,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8517169338191907</v>
+        <v>0.8535309229207276</v>
       </c>
     </row>
     <row r="83">
@@ -2963,7 +2963,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7964502301549652</v>
+        <v>0.7986320283537668</v>
       </c>
     </row>
     <row r="84">
@@ -2971,7 +2971,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>0.74015412121144</v>
+        <v>0.7426134804065201</v>
       </c>
     </row>
     <row r="85">
@@ -2979,7 +2979,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6835471285838552</v>
+        <v>0.6861010652820404</v>
       </c>
     </row>
     <row r="86">
@@ -2987,7 +2987,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6275301849709389</v>
+        <v>0.6298651062624107</v>
       </c>
     </row>
     <row r="87">
@@ -2995,7 +2995,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5731806248631558</v>
+        <v>0.5750413003810623</v>
       </c>
     </row>
     <row r="88">
@@ -3003,7 +3003,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5214819982447271</v>
+        <v>0.5229147993883495</v>
       </c>
     </row>
     <row r="89">
@@ -3011,7 +3011,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4730459805263253</v>
+        <v>0.474439720016282</v>
       </c>
     </row>
     <row r="90">
@@ -3019,7 +3019,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4281038739085745</v>
+        <v>0.42990403792050164</v>
       </c>
     </row>
     <row r="91">
@@ -3027,7 +3027,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3866864703135076</v>
+        <v>0.3890206201862486</v>
       </c>
     </row>
     <row r="92">
@@ -3035,7 +3035,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.34872904919153774</v>
+        <v>0.35134668912205225</v>
       </c>
     </row>
     <row r="93">
@@ -3043,7 +3043,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3141079473124351</v>
+        <v>0.31666099696782934</v>
       </c>
     </row>
     <row r="94">
@@ -3051,7 +3051,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2827287024948509</v>
+        <v>0.2850591083228009</v>
       </c>
     </row>
     <row r="95">
@@ -3059,7 +3059,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2545782766564148</v>
+        <v>0.2567993721419494</v>
       </c>
     </row>
     <row r="96">
@@ -3067,7 +3067,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.22964355035396072</v>
+        <v>0.23202859394026898</v>
       </c>
     </row>
     <row r="97">
@@ -3075,7 +3075,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2077934066618329</v>
+        <v>0.21056393987089417</v>
       </c>
     </row>
     <row r="98">
@@ -3083,7 +3083,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>0.18873340922971643</v>
+        <v>0.19190954862367926</v>
       </c>
     </row>
     <row r="99">
@@ -3091,7 +3091,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>0.17203592386981925</v>
+        <v>0.17548602085928938</v>
       </c>
     </row>
     <row r="100">
@@ -3099,7 +3099,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1572590209771774</v>
+        <v>0.160871630763045</v>
       </c>
     </row>
     <row r="101">
@@ -3107,7 +3107,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.14414234367636805</v>
+        <v>0.147933771043446</v>
       </c>
     </row>
     <row r="102">
@@ -3115,7 +3115,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13272297647353667</v>
+        <v>0.13682403215758257</v>
       </c>
     </row>
     <row r="103">
@@ -3123,7 +3123,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.12322706353580837</v>
+        <v>0.12780178688847554</v>
       </c>
     </row>
     <row r="104">
@@ -3131,7 +3131,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11581487266298501</v>
+        <v>0.12096734255346912</v>
       </c>
     </row>
     <row r="105">
@@ -3139,7 +3139,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11038708141257661</v>
+        <v>0.11612329964606913</v>
       </c>
     </row>
     <row r="106">
@@ -3147,7 +3147,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>0.10657898868974494</v>
+        <v>0.11286663737552267</v>
       </c>
     </row>
     <row r="107">
@@ -3155,7 +3155,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10394047759007276</v>
+        <v>0.11080477963696382</v>
       </c>
     </row>
     <row r="108">
@@ -3163,7 +3163,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10220525840994135</v>
+        <v>0.10976487567258236</v>
       </c>
     </row>
     <row r="109">
@@ -3171,7 +3171,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.10146744128663429</v>
+        <v>0.10989939399036545</v>
       </c>
     </row>
     <row r="110">
@@ -3179,7 +3179,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10210797984177991</v>
+        <v>0.11158315904552026</v>
       </c>
     </row>
     <row r="111">
@@ -3187,7 +3187,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10451455615625066</v>
+        <v>0.11514032625505871</v>
       </c>
     </row>
     <row r="112">
@@ -3195,7 +3195,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0.10882084579967186</v>
+        <v>0.12063811398244152</v>
       </c>
     </row>
     <row r="113">
@@ -3203,7 +3203,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1148527052891586</v>
+        <v>0.12791171959342662</v>
       </c>
     </row>
     <row r="114">
@@ -3211,7 +3211,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>0.12229116035820052</v>
+        <v>0.1367391559112078</v>
       </c>
     </row>
     <row r="115">
@@ -3219,7 +3219,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13093676598149426</v>
+        <v>0.14702889275796108</v>
       </c>
     </row>
     <row r="116">
@@ -3227,7 +3227,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1409092506959028</v>
+        <v>0.15894426205812276</v>
       </c>
     </row>
     <row r="117">
@@ -3235,7 +3235,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1526273551912165</v>
+        <v>0.1728610572767122</v>
       </c>
     </row>
     <row r="118">
@@ -3243,7 +3243,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1665697406896388</v>
+        <v>0.18915592919516097</v>
       </c>
     </row>
     <row r="119">
@@ -3251,7 +3251,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1830268709199156</v>
+        <v>0.20804878676514557</v>
       </c>
     </row>
     <row r="120">
@@ -3259,7 +3259,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>0.202048024532432</v>
+        <v>0.229649384605986</v>
       </c>
     </row>
     <row r="121">
@@ -3267,7 +3267,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.22356946914176876</v>
+        <v>0.2540556316752215</v>
       </c>
     </row>
     <row r="122">
@@ -3275,7 +3275,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24758748904651445</v>
+        <v>0.2813737921308237</v>
       </c>
     </row>
     <row r="123">
@@ -3283,7 +3283,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2742819868693951</v>
+        <v>0.31173821988015826</v>
       </c>
     </row>
     <row r="124">
@@ -3291,7 +3291,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3040073420863502</v>
+        <v>0.34531745794057245</v>
       </c>
     </row>
     <row r="125">
@@ -3299,7 +3299,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.33712019912614083</v>
+        <v>0.38224808788386677</v>
       </c>
     </row>
     <row r="126">
@@ -3307,7 +3307,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.37380298036266085</v>
+        <v>0.42263171282243084</v>
       </c>
     </row>
     <row r="127">
@@ -3315,7 +3315,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.41406287813350107</v>
+        <v>0.4666065374011041</v>
       </c>
     </row>
     <row r="128">
@@ -3323,7 +3323,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4578162527715362</v>
+        <v>0.5141997930788018</v>
       </c>
     </row>
     <row r="129">
@@ -3331,7 +3331,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.504877598845076</v>
+        <v>0.5650110406257248</v>
       </c>
     </row>
     <row r="130">
@@ -3339,7 +3339,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5549220337051692</v>
+        <v>0.6182085231313729</v>
       </c>
     </row>
     <row r="131">
@@ -3347,7 +3347,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6075360991151695</v>
+        <v>0.6728871450273222</v>
       </c>
     </row>
     <row r="132">
@@ -3355,7 +3355,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6622558830948331</v>
+        <v>0.72837696642799</v>
       </c>
     </row>
     <row r="133">
@@ -3363,7 +3363,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7184965494982661</v>
+        <v>0.7842145718493515</v>
       </c>
     </row>
     <row r="134">
@@ -3371,7 +3371,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7754180927018807</v>
+        <v>0.8396302298542957</v>
       </c>
     </row>
     <row r="135">
@@ -3379,7 +3379,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8317438534013034</v>
+        <v>0.8929634040415373</v>
       </c>
     </row>
     <row r="136">
@@ -3387,7 +3387,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8856457237968876</v>
+        <v>0.9420597817840053</v>
       </c>
     </row>
     <row r="137">
@@ -3395,7 +3395,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9350562011616432</v>
+        <v>0.985342758629218</v>
       </c>
     </row>
     <row r="138">
@@ -3403,7 +3403,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9784190392996568</v>
+        <v>1.022043319590886</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +3424,7 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>1.3234889800848443E-23</v>
       </c>
     </row>
     <row r="2">
@@ -3432,7 +3432,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0013760428934649204</v>
+        <v>0.0013760428897642875</v>
       </c>
     </row>
     <row r="3">
@@ -3440,7 +3440,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001816496211564773</v>
+        <v>0.001816496217243659</v>
       </c>
     </row>
     <row r="4">
@@ -3448,7 +3448,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0010419495109364732</v>
+        <v>0.0010419495539243833</v>
       </c>
     </row>
     <row r="5">
@@ -3456,7 +3456,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.919022700263351E-4</v>
+        <v>-3.9190218238345894E-4</v>
       </c>
     </row>
     <row r="6">
@@ -3464,7 +3464,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.001469977827687252</v>
+        <v>-0.0014699777383512548</v>
       </c>
     </row>
     <row r="7">
@@ -3472,7 +3472,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0014245387818171168</v>
+        <v>-0.001424538717130292</v>
       </c>
     </row>
     <row r="8">
@@ -3480,7 +3480,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.621431625919025E-4</v>
+        <v>-2.621431137569007E-4</v>
       </c>
     </row>
     <row r="9">
@@ -3488,7 +3488,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0012401739854513815</v>
+        <v>0.0012401740414483358</v>
       </c>
     </row>
     <row r="10">
@@ -3496,7 +3496,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0020700755368705252</v>
+        <v>0.002070075622619329</v>
       </c>
     </row>
     <row r="11">
@@ -3504,7 +3504,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0016848651748200007</v>
+        <v>0.0016848653559758192</v>
       </c>
     </row>
     <row r="12">
@@ -3512,7 +3512,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>3.900755395394275E-4</v>
+        <v>3.9007581819255785E-4</v>
       </c>
     </row>
     <row r="13">
@@ -3520,7 +3520,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-8.784036798360855E-4</v>
+        <v>-8.784035316610522E-4</v>
       </c>
     </row>
     <row r="14">
@@ -3528,7 +3528,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0012025615341477586</v>
+        <v>-0.001202561465289899</v>
       </c>
     </row>
     <row r="15">
@@ -3536,7 +3536,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.1142029357668084E-4</v>
+        <v>-3.114203379799288E-4</v>
       </c>
     </row>
     <row r="16">
@@ -3544,7 +3544,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0012302852119491176</v>
+        <v>0.0012302842907945305</v>
       </c>
     </row>
     <row r="17">
@@ -3552,7 +3552,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0024105310481525167</v>
+        <v>0.0024105312417655117</v>
       </c>
     </row>
     <row r="18">
@@ -3560,7 +3560,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002478969258879715</v>
+        <v>0.0024789699274068867</v>
       </c>
     </row>
     <row r="19">
@@ -3568,7 +3568,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0014702892875291128</v>
+        <v>0.001470290584104803</v>
       </c>
     </row>
     <row r="20">
@@ -3576,7 +3576,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>1.6919816703145685E-4</v>
+        <v>1.6919961380889987E-4</v>
       </c>
     </row>
     <row r="21">
@@ -3584,7 +3584,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.3387044649888614E-4</v>
+        <v>-4.338697085606576E-4</v>
       </c>
     </row>
     <row r="22">
@@ -3592,7 +3592,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>1.7893393084671664E-4</v>
+        <v>1.7893316079144623E-4</v>
       </c>
     </row>
     <row r="23">
@@ -3600,7 +3600,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0016936045098392776</v>
+        <v>0.00169360254195544</v>
       </c>
     </row>
     <row r="24">
@@ -3608,7 +3608,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003184390314646761</v>
+        <v>0.003184389333640326</v>
       </c>
     </row>
     <row r="25">
@@ -3616,7 +3616,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0037697119021904016</v>
+        <v>0.0037697150282029173</v>
       </c>
     </row>
     <row r="26">
@@ -3624,7 +3624,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003224268815284583</v>
+        <v>0.003224278521968347</v>
       </c>
     </row>
     <row r="27">
@@ -3632,7 +3632,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0021188183941579313</v>
+        <v>0.0021188320691127986</v>
       </c>
     </row>
     <row r="28">
@@ -3640,7 +3640,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0014252118695250156</v>
+        <v>0.0014252200934711506</v>
       </c>
     </row>
     <row r="29">
@@ -3648,7 +3648,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0018495783939734068</v>
+        <v>0.00184956928774651</v>
       </c>
     </row>
     <row r="30">
@@ -3656,7 +3656,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0033420594068806183</v>
+        <v>0.003342030743072077</v>
       </c>
     </row>
     <row r="31">
@@ -3664,7 +3664,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005147861654049658</v>
+        <v>0.005147834405914636</v>
       </c>
     </row>
     <row r="32">
@@ -3672,7 +3672,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006357842517409803</v>
+        <v>0.006357859411814516</v>
       </c>
     </row>
     <row r="33">
@@ -3680,7 +3680,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.006532752832972151</v>
+        <v>0.006532844939339371</v>
       </c>
     </row>
     <row r="34">
@@ -3688,7 +3688,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005984300747599975</v>
+        <v>0.005984443176315464</v>
       </c>
     </row>
     <row r="35">
@@ -3696,7 +3696,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00556507755100155</v>
+        <v>0.005565173504768037</v>
       </c>
     </row>
     <row r="36">
@@ -3704,7 +3704,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0060815146649925815</v>
+        <v>0.006081426114435113</v>
       </c>
     </row>
     <row r="37">
@@ -3712,7 +3712,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007730844500321419</v>
+        <v>0.007730509118558085</v>
       </c>
     </row>
     <row r="38">
@@ -3720,7 +3720,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>0.010004400573427528</v>
+        <v>0.010004024737146556</v>
       </c>
     </row>
     <row r="39">
@@ -3728,7 +3728,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.012092944762292277</v>
+        <v>0.012093012050281104</v>
       </c>
     </row>
     <row r="40">
@@ -3736,7 +3736,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>0.013434016412898762</v>
+        <v>0.013434898216316844</v>
       </c>
     </row>
     <row r="41">
@@ -3744,7 +3744,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.014068426496142324</v>
+        <v>0.014069906598257503</v>
       </c>
     </row>
     <row r="42">
@@ -3752,7 +3752,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0146284295437302</v>
+        <v>0.014629552703649693</v>
       </c>
     </row>
     <row r="43">
@@ -3760,7 +3760,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.015903790295040948</v>
+        <v>0.015903119106245242</v>
       </c>
     </row>
     <row r="44">
@@ -3768,7 +3768,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.018281973634861882</v>
+        <v>0.018278671705093855</v>
       </c>
     </row>
     <row r="45">
@@ -3776,7 +3776,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.021543755121239575</v>
+        <v>0.021539548248323145</v>
       </c>
     </row>
     <row r="46">
@@ -3784,7 +3784,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.025109373525271463</v>
+        <v>0.025109002320866762</v>
       </c>
     </row>
     <row r="47">
@@ -3792,7 +3792,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02843344306542002</v>
+        <v>0.028441136518317988</v>
       </c>
     </row>
     <row r="48">
@@ -3800,7 +3800,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.031336311616443895</v>
+        <v>0.031350895925760174</v>
       </c>
     </row>
     <row r="49">
@@ -3808,7 +3808,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.034153575506390525</v>
+        <v>0.034166635863465106</v>
       </c>
     </row>
     <row r="50">
@@ -3816,7 +3816,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03751651033463462</v>
+        <v>0.03751467533264731</v>
       </c>
     </row>
     <row r="51">
@@ -3824,7 +3824,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04187961055960163</v>
+        <v>0.04185335882278952</v>
       </c>
     </row>
     <row r="52">
@@ -3832,7 +3832,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.047252705532894006</v>
+        <v>0.047212736232958054</v>
       </c>
     </row>
     <row r="53">
@@ -3840,7 +3840,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.053312323199248446</v>
+        <v>0.053296979812302324</v>
       </c>
     </row>
     <row r="54">
@@ -3848,7 +3848,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05963541633231061</v>
+        <v>0.05968620227006445</v>
       </c>
     </row>
     <row r="55">
@@ -3856,7 +3856,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06590296278483815</v>
+        <v>0.06602145651842971</v>
       </c>
     </row>
     <row r="56">
@@ -3864,7 +3864,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07209149071277884</v>
+        <v>0.07221920203625691</v>
       </c>
     </row>
     <row r="57">
@@ -3872,7 +3872,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07847286831910016</v>
+        <v>0.07851132719937975</v>
       </c>
     </row>
     <row r="58">
@@ -3880,7 +3880,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08530450373836804</v>
+        <v>0.08517620403862233</v>
       </c>
     </row>
     <row r="59">
@@ -3888,7 +3888,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09251157415706003</v>
+        <v>0.09225640243479225</v>
       </c>
     </row>
     <row r="60">
@@ -3896,7 +3896,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09966007510446497</v>
+        <v>0.09948121568123112</v>
       </c>
     </row>
     <row r="61">
@@ -3904,7 +3904,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.10608947443267357</v>
+        <v>0.10621222827040668</v>
       </c>
     </row>
     <row r="62">
@@ -3912,7 +3912,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11102978023031376</v>
+        <v>0.11145508038517765</v>
       </c>
     </row>
     <row r="63">
@@ -3920,7 +3920,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11384643212979627</v>
+        <v>0.11432105635714664</v>
       </c>
     </row>
     <row r="64">
@@ -3928,7 +3928,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1144006304241529</v>
+        <v>0.1146816945671906</v>
       </c>
     </row>
     <row r="65">
@@ -3936,7 +3936,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11308922091698748</v>
+        <v>0.11318142718079782</v>
       </c>
     </row>
     <row r="66">
@@ -3944,7 +3944,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.11035408673428</v>
+        <v>0.11044705233035483</v>
       </c>
     </row>
     <row r="67">
@@ -3952,7 +3952,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10607450157040532</v>
+        <v>0.10616527248759813</v>
       </c>
     </row>
     <row r="68">
@@ -3960,7 +3960,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09936781898794815</v>
+        <v>0.09893433482624751</v>
       </c>
     </row>
     <row r="69">
@@ -3968,7 +3968,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08897425302286299</v>
+        <v>0.08762406300430635</v>
       </c>
     </row>
     <row r="70">
@@ -3976,7 +3976,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07418223744163364</v>
+        <v>0.07285406497466855</v>
       </c>
     </row>
     <row r="71">
@@ -3984,7 +3984,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05581988216919051</v>
+        <v>0.056178541090957865</v>
       </c>
     </row>
     <row r="72">
@@ -3992,7 +3992,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03623964418906655</v>
+        <v>0.038454176175573965</v>
       </c>
     </row>
     <row r="73">
@@ -4000,7 +4000,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.017882458453972613</v>
+        <v>0.02014726780461184</v>
       </c>
     </row>
     <row r="74">
@@ -4008,7 +4008,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0016227080185492395</v>
+        <v>0.002429981279871981</v>
       </c>
     </row>
     <row r="75">
@@ -4016,7 +4016,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.013578399430206136</v>
+        <v>-0.014052894686408333</v>
       </c>
     </row>
     <row r="76">
@@ -4024,7 +4024,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.029547583262406082</v>
+        <v>-0.030600454013900654</v>
       </c>
     </row>
     <row r="77">
@@ -4032,7 +4032,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.047283642786997655</v>
+        <v>-0.04847621253106532</v>
       </c>
     </row>
     <row r="78">
@@ -4040,7 +4040,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.06588969579106094</v>
+        <v>-0.06660479400505107</v>
       </c>
     </row>
     <row r="79">
@@ -4048,7 +4048,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.08287036267773716</v>
+        <v>-0.08249037100911812</v>
       </c>
     </row>
     <row r="80">
@@ -4056,7 +4056,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.09583720277814407</v>
+        <v>-0.09463599256520842</v>
       </c>
     </row>
     <row r="81">
@@ -4064,7 +4064,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.10417585980485576</v>
+        <v>-0.10297730410866617</v>
       </c>
     </row>
     <row r="82">
@@ -4072,7 +4072,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1090152043874167</v>
+        <v>-0.10816449308319333</v>
       </c>
     </row>
     <row r="83">
@@ -4080,7 +4080,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.11179250081210503</v>
+        <v>-0.11114453834097565</v>
       </c>
     </row>
     <row r="84">
@@ -4088,7 +4088,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.11316267688385291</v>
+        <v>-0.1127366239614741</v>
       </c>
     </row>
     <row r="85">
@@ -4096,7 +4096,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.11296477426130802</v>
+        <v>-0.11306518484106488</v>
       </c>
     </row>
     <row r="86">
@@ -4104,7 +4104,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.11073351423278956</v>
+        <v>-0.11149181470522244</v>
       </c>
     </row>
     <row r="87">
@@ -4112,7 +4112,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.10632578606329805</v>
+        <v>-0.1073567450195963</v>
       </c>
     </row>
     <row r="88">
@@ -4120,7 +4120,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.10026512678310272</v>
+        <v>-0.10081847168792925</v>
       </c>
     </row>
     <row r="89">
@@ -4128,7 +4128,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.09340968694767747</v>
+        <v>-0.09298941946986107</v>
       </c>
     </row>
     <row r="90">
@@ -4136,7 +4136,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.08635169224570884</v>
+        <v>-0.08526522513594756</v>
       </c>
     </row>
     <row r="91">
@@ -4144,7 +4144,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.07933971912043963</v>
+        <v>-0.07842987466436213</v>
       </c>
     </row>
     <row r="92">
@@ -4152,7 +4152,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0725348472207847</v>
+        <v>-0.07234235140081229</v>
       </c>
     </row>
     <row r="93">
@@ -4160,7 +4160,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.06598350314428666</v>
+        <v>-0.06636282970167785</v>
       </c>
     </row>
     <row r="94">
@@ -4168,7 +4168,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.059534371253826206</v>
+        <v>-0.05994864134184521</v>
       </c>
     </row>
     <row r="95">
@@ -4176,7 +4176,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.05306712693977537</v>
+        <v>-0.053032983704311205</v>
       </c>
     </row>
     <row r="96">
@@ -4184,7 +4184,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.0467141619673864</v>
+        <v>-0.04611173488111672</v>
       </c>
     </row>
     <row r="97">
@@ -4192,7 +4192,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.04078545144436347</v>
+        <v>-0.03992111421377922</v>
       </c>
     </row>
     <row r="98">
@@ -4200,7 +4200,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.03560090658004489</v>
+        <v>-0.03489817540532852</v>
       </c>
     </row>
     <row r="99">
@@ -4208,7 +4208,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.03134380796448199</v>
+        <v>-0.03094083382559344</v>
       </c>
     </row>
     <row r="100">
@@ -4216,7 +4216,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.027855384295026</v>
+        <v>-0.02756113075458623</v>
       </c>
     </row>
     <row r="101">
@@ -4224,7 +4224,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.024594858247819314</v>
+        <v>-0.024133571653878805</v>
       </c>
     </row>
     <row r="102">
@@ -4232,7 +4232,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.020997514254891294</v>
+        <v>-0.020208680169283615</v>
       </c>
     </row>
     <row r="103">
@@ -4240,7 +4240,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.01692564566632038</v>
+        <v>-0.015841653325506758</v>
       </c>
     </row>
     <row r="104">
@@ -4248,7 +4248,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.01275610035320686</v>
+        <v>-0.01156575827886494</v>
       </c>
     </row>
     <row r="105">
@@ -4256,7 +4256,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.009083055574005227</v>
+        <v>-0.00795261323669505</v>
       </c>
     </row>
     <row r="106">
@@ -4264,7 +4264,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.006309284537253313</v>
+        <v>-0.005212205441003951</v>
       </c>
     </row>
     <row r="107">
@@ -4272,7 +4272,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.004340360484412675</v>
+        <v>-0.0030970625362063946</v>
       </c>
     </row>
     <row r="108">
@@ -4280,7 +4280,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.002566473959167427</v>
+        <v>-0.001008218614860621</v>
       </c>
     </row>
     <row r="109">
@@ -4288,7 +4288,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.471607760205749E-4</v>
+        <v>0.001681775113351942</v>
       </c>
     </row>
     <row r="110">
@@ -4296,7 +4296,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0029482580890724825</v>
+        <v>0.005169200147756826</v>
       </c>
     </row>
     <row r="111">
@@ -4304,7 +4304,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.006724360004368871</v>
+        <v>0.009080395830007323</v>
       </c>
     </row>
     <row r="112">
@@ -4312,7 +4312,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0.010436702294743179</v>
+        <v>0.012849205043565248</v>
       </c>
     </row>
     <row r="113">
@@ -4320,7 +4320,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>0.013574797361397838</v>
+        <v>0.016164811624871493</v>
       </c>
     </row>
     <row r="114">
@@ -4328,7 +4328,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>0.016104993867960257</v>
+        <v>0.019109620848666884</v>
       </c>
     </row>
     <row r="115">
@@ -4336,7 +4336,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01851792474825766</v>
+        <v>0.022104957683406885</v>
       </c>
     </row>
     <row r="116">
@@ -4344,7 +4344,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02152079002438731</v>
+        <v>0.025690248084443982</v>
       </c>
     </row>
     <row r="117">
@@ -4352,7 +4352,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.025520665588234705</v>
+        <v>0.030108768907690268</v>
       </c>
     </row>
     <row r="118">
@@ -4360,7 +4360,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.030347265756440343</v>
+        <v>0.03514131489127741</v>
       </c>
     </row>
     <row r="119">
@@ -4368,7 +4368,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03549255541547149</v>
+        <v>0.04046254372504916</v>
       </c>
     </row>
     <row r="120">
@@ -4376,7 +4376,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>0.04056470841260709</v>
+        <v>0.045972672592672695</v>
       </c>
     </row>
     <row r="121">
@@ -4384,7 +4384,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.045515293550599814</v>
+        <v>0.05168692927563773</v>
       </c>
     </row>
     <row r="122">
@@ -4392,7 +4392,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0506166971907467</v>
+        <v>0.057629610674012115</v>
       </c>
     </row>
     <row r="123">
@@ -4400,7 +4400,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05628608072208806</v>
+        <v>0.06388754305094868</v>
       </c>
     </row>
     <row r="124">
@@ -4408,7 +4408,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0627413403784116</v>
+        <v>0.07047546350716258</v>
       </c>
     </row>
     <row r="125">
@@ -4416,7 +4416,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0697703022453841</v>
+        <v>0.07727627401503526</v>
       </c>
     </row>
     <row r="126">
@@ -4424,7 +4424,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.07695907770162283</v>
+        <v>0.08430922062318005</v>
       </c>
     </row>
     <row r="127">
@@ -4432,7 +4432,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.08405362961179554</v>
+        <v>0.09161322261515671</v>
       </c>
     </row>
     <row r="128">
@@ -4440,7 +4440,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.09090017470947892</v>
+        <v>0.09862657222436828</v>
       </c>
     </row>
     <row r="129">
@@ -4448,7 +4448,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0972344030889263</v>
+        <v>0.10432646753096922</v>
       </c>
     </row>
     <row r="130">
@@ -4456,7 +4456,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.10280362777917243</v>
+        <v>0.10815042274811795</v>
       </c>
     </row>
     <row r="131">
@@ -4464,7 +4464,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.10750086359160739</v>
+        <v>0.11034070244520841</v>
       </c>
     </row>
     <row r="132">
@@ -4472,7 +4472,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1111877472968074</v>
+        <v>0.11148223093413304</v>
       </c>
     </row>
     <row r="133">
@@ -4480,7 +4480,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.11350113483085228</v>
+        <v>0.11163895752579454</v>
       </c>
     </row>
     <row r="134">
@@ -4488,7 +4488,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11376574179519088</v>
+        <v>0.10945555668299661</v>
       </c>
     </row>
     <row r="135">
@@ -4496,7 +4496,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11091810221204026</v>
+        <v>0.1031123363069564</v>
       </c>
     </row>
     <row r="136">
@@ -4504,7 +4504,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10397097010844022</v>
+        <v>0.09274065514419413</v>
       </c>
     </row>
     <row r="137">
@@ -4512,7 +4512,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0931319129560975</v>
+        <v>0.08016490844948038</v>
       </c>
     </row>
     <row r="138">
@@ -4520,7 +4520,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>0.08015114421526368</v>
+        <v>0.06643959934579467</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +4549,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3611300392011394</v>
+        <v>-0.3611298401599452</v>
       </c>
     </row>
     <row r="3">
@@ -4557,7 +4557,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2717374831960868</v>
+        <v>-0.27173754005667883</v>
       </c>
     </row>
     <row r="4">
@@ -4565,7 +4565,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.28836828485152444</v>
+        <v>-0.28836852844000616</v>
       </c>
     </row>
     <row r="5">
@@ -4573,7 +4573,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2993183719257232</v>
+        <v>-0.29931861738832627</v>
       </c>
     </row>
     <row r="6">
@@ -4581,7 +4581,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.32141796880977946</v>
+        <v>-0.32141789941555543</v>
       </c>
     </row>
     <row r="7">
@@ -4589,7 +4589,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.32709680065189134</v>
+        <v>-0.32709640943636664</v>
       </c>
     </row>
     <row r="8">
@@ -4597,7 +4597,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.30688653674384625</v>
+        <v>-0.30688623029831474</v>
       </c>
     </row>
     <row r="9">
@@ -4605,7 +4605,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.272880728843714</v>
+        <v>-0.272880797090459</v>
       </c>
     </row>
     <row r="10">
@@ -4613,7 +4613,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.25348316618197464</v>
+        <v>-0.25348354508430004</v>
       </c>
     </row>
     <row r="11">
@@ -4621,7 +4621,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.26900898512126725</v>
+        <v>-0.2690094211796666</v>
       </c>
     </row>
     <row r="12">
@@ -4629,7 +4629,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.31192326622261146</v>
+        <v>-0.31192357744073135</v>
       </c>
     </row>
     <row r="13">
@@ -4637,7 +4637,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.34954686209849534</v>
+        <v>-0.3495466965234214</v>
       </c>
     </row>
     <row r="14">
@@ -4645,7 +4645,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3494285257710724</v>
+        <v>-0.3494276762538616</v>
       </c>
     </row>
     <row r="15">
@@ -4653,7 +4653,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.30726831445375635</v>
+        <v>-0.307267491885134</v>
       </c>
     </row>
     <row r="16">
@@ -4661,7 +4661,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.25342724719784</v>
+        <v>-0.25342726401986315</v>
       </c>
     </row>
     <row r="17">
@@ -4669,7 +4669,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.23067838300410926</v>
+        <v>-0.23067922933235996</v>
       </c>
     </row>
     <row r="18">
@@ -4677,7 +4677,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2598418734074183</v>
+        <v>-0.25984308275983203</v>
       </c>
     </row>
     <row r="19">
@@ -4685,7 +4685,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.32119340254046813</v>
+        <v>-0.3211946800983543</v>
       </c>
     </row>
     <row r="20">
@@ -4693,7 +4693,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.36794887217683137</v>
+        <v>-0.3679492332046128</v>
       </c>
     </row>
     <row r="21">
@@ -4701,7 +4701,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.362443706153428</v>
+        <v>-0.36244168895490014</v>
       </c>
     </row>
     <row r="22">
@@ -4709,7 +4709,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.30663784304608754</v>
+        <v>-0.30663436855793935</v>
       </c>
     </row>
     <row r="23">
@@ -4717,7 +4717,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2421317727910381</v>
+        <v>-0.24212987616666942</v>
       </c>
     </row>
     <row r="24">
@@ -4725,7 +4725,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.21868503917350285</v>
+        <v>-0.21868670919595112</v>
       </c>
     </row>
     <row r="25">
@@ -4733,7 +4733,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.25543983012454774</v>
+        <v>-0.25544508063300597</v>
       </c>
     </row>
     <row r="26">
@@ -4741,7 +4741,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.32535792363956545</v>
+        <v>-0.32536521288310305</v>
       </c>
     </row>
     <row r="27">
@@ -4749,7 +4749,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.3754677133400413</v>
+        <v>-0.37547183805322454</v>
       </c>
     </row>
     <row r="28">
@@ -4757,7 +4757,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3674575869388037</v>
+        <v>-0.36745116771956843</v>
       </c>
     </row>
     <row r="29">
@@ -4765,7 +4765,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.3071528487427809</v>
+        <v>-0.3071363808368762</v>
       </c>
     </row>
     <row r="30">
@@ -4773,7 +4773,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.24006922513975915</v>
+        <v>-0.24005509493272242</v>
       </c>
     </row>
     <row r="31">
@@ -4781,7 +4781,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.21661561371327043</v>
+        <v>-0.2166184056494514</v>
       </c>
     </row>
     <row r="32">
@@ -4789,7 +4789,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.25388947910196025</v>
+        <v>-0.25391490893786345</v>
       </c>
     </row>
     <row r="33">
@@ -4797,7 +4797,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.32325972989236096</v>
+        <v>-0.32329857126795025</v>
       </c>
     </row>
     <row r="34">
@@ -4805,7 +4805,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.37269423110702166</v>
+        <v>-0.3727186349356263</v>
       </c>
     </row>
     <row r="35">
@@ -4813,7 +4813,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.36615049409132316</v>
+        <v>-0.36612624634003543</v>
       </c>
     </row>
     <row r="36">
@@ -4821,7 +4821,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3099251826771307</v>
+        <v>-0.30984897310987974</v>
       </c>
     </row>
     <row r="37">
@@ -4829,7 +4829,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.24665424724305157</v>
+        <v>-0.24657723612405835</v>
       </c>
     </row>
     <row r="38">
@@ -4837,7 +4837,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.22260891188818832</v>
+        <v>-0.2226074820784315</v>
       </c>
     </row>
     <row r="39">
@@ -4845,7 +4845,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.25363634633618615</v>
+        <v>-0.2537514016047107</v>
       </c>
     </row>
     <row r="40">
@@ -4853,7 +4853,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.3149571345367733</v>
+        <v>-0.3151457077088854</v>
       </c>
     </row>
     <row r="41">
@@ -4861,7 +4861,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3611278163286255</v>
+        <v>-0.3612564495564279</v>
       </c>
     </row>
     <row r="42">
@@ -4869,7 +4869,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.35992037740270244</v>
+        <v>-0.3598350494647532</v>
       </c>
     </row>
     <row r="43">
@@ -4877,7 +4877,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3146730983421273</v>
+        <v>-0.31434514815599235</v>
       </c>
     </row>
     <row r="44">
@@ -4885,7 +4885,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2597080829578359</v>
+        <v>-0.2593375642552731</v>
       </c>
     </row>
     <row r="45">
@@ -4893,7 +4893,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2339519989974702</v>
+        <v>-0.23388150842507455</v>
       </c>
     </row>
     <row r="46">
@@ -4901,7 +4901,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.25320228965432534</v>
+        <v>-0.2536569170967148</v>
       </c>
     </row>
     <row r="47">
@@ -4909,7 +4909,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3008118880890138</v>
+        <v>-0.30164560959226105</v>
       </c>
     </row>
     <row r="48">
@@ -4917,7 +4917,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3417982792829187</v>
+        <v>-0.3424528717757862</v>
       </c>
     </row>
     <row r="49">
@@ -4925,7 +4925,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.34841454502532265</v>
+        <v>-0.3482198197671479</v>
       </c>
     </row>
     <row r="50">
@@ -4933,7 +4933,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3184142578326038</v>
+        <v>-0.317156545490031</v>
       </c>
     </row>
     <row r="51">
@@ -4941,7 +4941,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.274224179035691</v>
+        <v>-0.27258361747523296</v>
       </c>
     </row>
     <row r="52">
@@ -4949,7 +4949,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.24554768689942752</v>
+        <v>-0.24489113630203863</v>
       </c>
     </row>
     <row r="53">
@@ -4957,7 +4957,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.24893588809263295</v>
+        <v>-0.2503749183134273</v>
       </c>
     </row>
     <row r="54">
@@ -4965,7 +4965,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.27826159425916897</v>
+        <v>-0.28154540392344846</v>
       </c>
     </row>
     <row r="55">
@@ -4973,7 +4973,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.3110001810494898</v>
+        <v>-0.31413998665199205</v>
       </c>
     </row>
     <row r="56">
@@ -4981,7 +4981,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.32427150713993624</v>
+        <v>-0.32451300011656914</v>
       </c>
     </row>
     <row r="57">
@@ -4989,7 +4989,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.30926087512597317</v>
+        <v>-0.30518967808814534</v>
       </c>
     </row>
     <row r="58">
@@ -4997,7 +4997,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.27527570969160287</v>
+        <v>-0.26872439922574165</v>
       </c>
     </row>
     <row r="59">
@@ -5005,7 +5005,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.24210319601479247</v>
+        <v>-0.2379684731354924</v>
       </c>
     </row>
     <row r="60">
@@ -5013,7 +5013,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2266850067570516</v>
+        <v>-0.22984012884399008</v>
       </c>
     </row>
     <row r="61">
@@ -5021,7 +5021,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.23291612290286529</v>
+        <v>-0.24376627116715277</v>
       </c>
     </row>
     <row r="62">
@@ -5029,7 +5029,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2503471433602543</v>
+        <v>-0.26248596832630455</v>
       </c>
     </row>
     <row r="63">
@@ -5037,7 +5037,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.26170464094585877</v>
+        <v>-0.26481964629355625</v>
       </c>
     </row>
     <row r="64">
@@ -5045,7 +5045,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.25406144655160573</v>
+        <v>-0.2420887759338411</v>
       </c>
     </row>
     <row r="65">
@@ -5053,7 +5053,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.22678682324025123</v>
+        <v>-0.20594891374178975</v>
       </c>
     </row>
     <row r="66">
@@ -5061,7 +5061,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.19136325345498884</v>
+        <v>-0.1788693016529862</v>
       </c>
     </row>
     <row r="67">
@@ -5069,7 +5069,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.16321620922227242</v>
+        <v>-0.17314625311591597</v>
       </c>
     </row>
     <row r="68">
@@ -5077,7 +5077,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.151575736529461</v>
+        <v>-0.17857137946233725</v>
       </c>
     </row>
     <row r="69">
@@ -5085,7 +5085,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1543457988462531</v>
+        <v>-0.1739194303154929</v>
       </c>
     </row>
     <row r="70">
@@ -5093,7 +5093,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.16093408649941</v>
+        <v>-0.1529085287060889</v>
       </c>
     </row>
     <row r="71">
@@ -5101,7 +5101,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.16045995434307186</v>
+        <v>-0.13309512138059187</v>
       </c>
     </row>
     <row r="72">
@@ -5109,7 +5109,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.14876439875434422</v>
+        <v>-0.13074985229017155</v>
       </c>
     </row>
     <row r="73">
@@ -5117,7 +5117,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1298960299472024</v>
+        <v>-0.1359283475474105</v>
       </c>
     </row>
     <row r="74">
@@ -5125,7 +5125,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.11302564260924158</v>
+        <v>-0.12969564307624498</v>
       </c>
     </row>
     <row r="75">
@@ -5133,7 +5133,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.10752425111613911</v>
+        <v>-0.1173542508819605</v>
       </c>
     </row>
     <row r="76">
@@ -5141,7 +5141,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.11761267038693823</v>
+        <v>-0.12026303843756486</v>
       </c>
     </row>
     <row r="77">
@@ -5149,7 +5149,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.13919158161459116</v>
+        <v>-0.1388964240593627</v>
       </c>
     </row>
     <row r="78">
@@ -5157,7 +5157,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.16183141162224496</v>
+        <v>-0.15278887989823342</v>
       </c>
     </row>
     <row r="79">
@@ -5165,7 +5165,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.17426216304981673</v>
+        <v>-0.15391218101096904</v>
       </c>
     </row>
     <row r="80">
@@ -5173,7 +5173,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.17132522955028257</v>
+        <v>-0.15577099336325556</v>
       </c>
     </row>
     <row r="81">
@@ -5181,7 +5181,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.15985897444046576</v>
+        <v>-0.16909358176655476</v>
       </c>
     </row>
     <row r="82">
@@ -5189,7 +5189,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.15630611380553477</v>
+        <v>-0.18755627004548248</v>
       </c>
     </row>
     <row r="83">
@@ -5197,7 +5197,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1745605231833377</v>
+        <v>-0.20096906218172222</v>
       </c>
     </row>
     <row r="84">
@@ -5205,7 +5205,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.21360431356597515</v>
+        <v>-0.2100639369231243</v>
       </c>
     </row>
     <row r="85">
@@ -5213,7 +5213,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.2557682978346757</v>
+        <v>-0.2232417520680124</v>
       </c>
     </row>
     <row r="86">
@@ -5221,7 +5221,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.27800711411483314</v>
+        <v>-0.24303743305640452</v>
       </c>
     </row>
     <row r="87">
@@ -5229,7 +5229,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.2694003186446298</v>
+        <v>-0.2607420688318324</v>
       </c>
     </row>
     <row r="88">
@@ -5237,7 +5237,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.241193426950844</v>
+        <v>-0.2651143553848698</v>
       </c>
     </row>
     <row r="89">
@@ -5245,7 +5245,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.21944499245718613</v>
+        <v>-0.2554152283155477</v>
       </c>
     </row>
     <row r="90">
@@ -5253,7 +5253,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.22601924019323222</v>
+        <v>-0.24484809464801044</v>
       </c>
     </row>
     <row r="91">
@@ -5261,7 +5261,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.26229381152629894</v>
+        <v>-0.25005786090306326</v>
       </c>
     </row>
     <row r="92">
@@ -5269,7 +5269,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.30739825134961296</v>
+        <v>-0.2756798243331753</v>
       </c>
     </row>
     <row r="93">
@@ -5277,7 +5277,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3326539772625217</v>
+        <v>-0.30782798805997624</v>
       </c>
     </row>
     <row r="94">
@@ -5285,7 +5285,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3222251068283757</v>
+        <v>-0.3234694274574753</v>
       </c>
     </row>
     <row r="95">
@@ -5293,7 +5293,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.2849614873644465</v>
+        <v>-0.3092980336959817</v>
       </c>
     </row>
     <row r="96">
@@ -5301,7 +5301,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.2484807207018121</v>
+        <v>-0.2746453351452346</v>
       </c>
     </row>
     <row r="97">
@@ -5309,7 +5309,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.2398462559658482</v>
+        <v>-0.24660312706924298</v>
       </c>
     </row>
     <row r="98">
@@ -5317,7 +5317,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.26657574808686046</v>
+        <v>-0.2497957966574465</v>
       </c>
     </row>
     <row r="99">
@@ -5325,7 +5325,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.31124765168951696</v>
+        <v>-0.28611720621969006</v>
       </c>
     </row>
     <row r="100">
@@ -5333,7 +5333,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.3435584592720714</v>
+        <v>-0.331009197114164</v>
       </c>
     </row>
     <row r="101">
@@ -5341,7 +5341,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.3414836238482797</v>
+        <v>-0.35078261976604186</v>
       </c>
     </row>
     <row r="102">
@@ -5349,7 +5349,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.3067636832931757</v>
+        <v>-0.3286904169577732</v>
       </c>
     </row>
     <row r="103">
@@ -5357,7 +5357,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.26380052202335486</v>
+        <v>-0.27937908254537946</v>
       </c>
     </row>
     <row r="104">
@@ -5365,7 +5365,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.24271777190350674</v>
+        <v>-0.23939322901207755</v>
       </c>
     </row>
     <row r="105">
@@ -5373,7 +5373,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.258421921663909</v>
+        <v>-0.23999097337773395</v>
       </c>
     </row>
     <row r="106">
@@ -5381,7 +5381,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3002295432097175</v>
+        <v>-0.2827402941015513</v>
       </c>
     </row>
     <row r="107">
@@ -5389,7 +5389,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.33927737714804806</v>
+        <v>-0.33703394364102524</v>
       </c>
     </row>
     <row r="108">
@@ -5397,7 +5397,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.34855967343861227</v>
+        <v>-0.3623379885773255</v>
       </c>
     </row>
     <row r="109">
@@ -5405,7 +5405,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3216807959788822</v>
+        <v>-0.33883388805514675</v>
       </c>
     </row>
     <row r="110">
@@ -5413,7 +5413,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2772981486677461</v>
+        <v>-0.28305232171588246</v>
       </c>
     </row>
     <row r="111">
@@ -5421,7 +5421,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.24616082232438574</v>
+        <v>-0.23608019968653698</v>
       </c>
     </row>
     <row r="112">
@@ -5429,7 +5429,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.24976758267211852</v>
+        <v>-0.23292785346547007</v>
       </c>
     </row>
     <row r="113">
@@ -5437,7 +5437,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2854734323614647</v>
+        <v>-0.27615815170281405</v>
       </c>
     </row>
     <row r="114">
@@ -5445,7 +5445,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.32836765758236097</v>
+        <v>-0.3337430984100323</v>
       </c>
     </row>
     <row r="115">
@@ -5453,7 +5453,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.3485734580115696</v>
+        <v>-0.3628602855247104</v>
       </c>
     </row>
     <row r="116">
@@ -5461,7 +5461,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.3319427138958876</v>
+        <v>-0.34180309924006225</v>
       </c>
     </row>
     <row r="117">
@@ -5469,7 +5469,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.28981567016945986</v>
+        <v>-0.2860782104336436</v>
       </c>
     </row>
     <row r="118">
@@ -5477,7 +5477,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.2510681500608567</v>
+        <v>-0.23657346385353223</v>
       </c>
     </row>
     <row r="119">
@@ -5485,7 +5485,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.24199338740811288</v>
+        <v>-0.22888307300736677</v>
       </c>
     </row>
     <row r="120">
@@ -5493,7 +5493,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2680600072929359</v>
+        <v>-0.2670063212264235</v>
       </c>
     </row>
     <row r="121">
@@ -5501,7 +5501,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.31022363727867397</v>
+        <v>-0.320881104507417</v>
       </c>
     </row>
     <row r="122">
@@ -5509,7 +5509,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.33825785707960493</v>
+        <v>-0.3491500431017276</v>
       </c>
     </row>
     <row r="123">
@@ -5517,7 +5517,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.33173943115428467</v>
+        <v>-0.32997701584306094</v>
       </c>
     </row>
     <row r="124">
@@ -5525,7 +5525,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.29414537390269535</v>
+        <v>-0.27710472193765245</v>
       </c>
     </row>
     <row r="125">
@@ -5533,7 +5533,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.250173322674132</v>
+        <v>-0.22886933944069654</v>
       </c>
     </row>
     <row r="126">
@@ -5541,7 +5541,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.22810169178634826</v>
+        <v>-0.21843670636675416</v>
       </c>
     </row>
     <row r="127">
@@ -5549,7 +5549,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.23987490814576073</v>
+        <v>-0.24837652938910854</v>
       </c>
     </row>
     <row r="128">
@@ -5557,7 +5557,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.2730811074607359</v>
+        <v>-0.2890801030078096</v>
       </c>
     </row>
     <row r="129">
@@ -5565,7 +5565,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.300203639633303</v>
+        <v>-0.3023110720168348</v>
       </c>
     </row>
     <row r="130">
@@ -5573,7 +5573,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.29819647801007343</v>
+        <v>-0.27224622029680867</v>
       </c>
     </row>
     <row r="131">
@@ -5581,7 +5581,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.26457241784329943</v>
+        <v>-0.2195304001717076</v>
       </c>
     </row>
     <row r="132">
@@ -5589,7 +5589,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.21847557737207324</v>
+        <v>-0.18341926200614073</v>
       </c>
     </row>
     <row r="133">
@@ -5597,7 +5597,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.18574117238330884</v>
+        <v>-0.18529932209907757</v>
       </c>
     </row>
     <row r="134">
@@ -5605,7 +5605,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.18002401029514375</v>
+        <v>-0.20796534522614724</v>
       </c>
     </row>
     <row r="135">
@@ -5613,7 +5613,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1944278360441748</v>
+        <v>-0.21302541619551313</v>
       </c>
     </row>
     <row r="136">
@@ -5621,7 +5621,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.20868498312539013</v>
+        <v>-0.18319405806032657</v>
       </c>
     </row>
     <row r="137">
@@ -5629,7 +5629,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.20513182692713727</v>
+        <v>-0.14484651826161582</v>
       </c>
     </row>
     <row r="138">
@@ -5637,7 +5637,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1808184466707139</v>
+        <v>-0.13521149587405462</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +5666,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.022000087856328975</v>
+        <v>0.021999824582841995</v>
       </c>
     </row>
     <row r="3">
@@ -5674,7 +5674,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.016961036699776014</v>
+        <v>0.016960570875569996</v>
       </c>
     </row>
     <row r="4">
@@ -5682,7 +5682,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.013761562909687733</v>
+        <v>-0.013761828917531641</v>
       </c>
     </row>
     <row r="5">
@@ -5690,7 +5690,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.04292783383959067</v>
+        <v>-0.042927507575522585</v>
       </c>
     </row>
     <row r="6">
@@ -5698,7 +5698,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03374834697627687</v>
+        <v>-0.03374752909041351</v>
       </c>
     </row>
     <row r="7">
@@ -5706,7 +5706,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.014308591221310703</v>
+        <v>0.014308888518081755</v>
       </c>
     </row>
     <row r="8">
@@ -5714,7 +5714,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0623184808252482</v>
+        <v>0.062317904889130214</v>
       </c>
     </row>
     <row r="9">
@@ -5722,7 +5722,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06330695218554953</v>
+        <v>0.06330615728155103</v>
       </c>
     </row>
     <row r="10">
@@ -5730,7 +5730,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006748743962908368</v>
+        <v>0.006748373188055271</v>
       </c>
     </row>
     <row r="11">
@@ -5738,7 +5738,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06625189485140366</v>
+        <v>-0.06625181026740842</v>
       </c>
     </row>
     <row r="12">
@@ -5746,7 +5746,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.09355569647184865</v>
+        <v>-0.09355519884015187</v>
       </c>
     </row>
     <row r="13">
@@ -5754,7 +5754,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.045057336225148535</v>
+        <v>-0.04505592494973716</v>
       </c>
     </row>
     <row r="14">
@@ -5762,7 +5762,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.047222990474173825</v>
+        <v>0.047223922186591764</v>
       </c>
     </row>
     <row r="15">
@@ -5770,7 +5770,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.11046481095646099</v>
+        <v>0.11046374047191691</v>
       </c>
     </row>
     <row r="16">
@@ -5778,7 +5778,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0893421067530323</v>
+        <v>0.0893401809343949</v>
       </c>
     </row>
     <row r="17">
@@ -5786,7 +5786,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.005997326257577237</v>
+        <v>-0.00599851319621562</v>
       </c>
     </row>
     <row r="18">
@@ -5794,7 +5794,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1035815429895545</v>
+        <v>-0.10358195261577273</v>
       </c>
     </row>
     <row r="19">
@@ -5802,7 +5802,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.12486780252639813</v>
+        <v>-0.12486740232319929</v>
       </c>
     </row>
     <row r="20">
@@ -5810,7 +5810,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.048445307867413565</v>
+        <v>-0.04844171160119797</v>
       </c>
     </row>
     <row r="21">
@@ -5818,7 +5818,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06981937707008967</v>
+        <v>0.06982433609601159</v>
       </c>
     </row>
     <row r="22">
@@ -5826,7 +5826,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13835503644553593</v>
+        <v>0.1383550717305135</v>
       </c>
     </row>
     <row r="23">
@@ -5834,7 +5834,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.10162237313482894</v>
+        <v>0.10161648143184636</v>
       </c>
     </row>
     <row r="24">
@@ -5842,7 +5842,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.014804369719827903</v>
+        <v>-0.01481202557007434</v>
       </c>
     </row>
     <row r="25">
@@ -5850,7 +5850,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.12244230173114233</v>
+        <v>-0.12244860972909268</v>
       </c>
     </row>
     <row r="26">
@@ -5858,7 +5858,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.13804703206792734</v>
+        <v>-0.13804753164825537</v>
       </c>
     </row>
     <row r="27">
@@ -5866,7 +5866,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.048514017450701975</v>
+        <v>-0.04849966755401548</v>
       </c>
     </row>
     <row r="28">
@@ -5874,7 +5874,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07844469013002002</v>
+        <v>0.07846962454073404</v>
       </c>
     </row>
     <row r="29">
@@ -5882,7 +5882,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.14629450554702184</v>
+        <v>0.14630522065439758</v>
       </c>
     </row>
     <row r="30">
@@ -5890,7 +5890,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.10380369463865777</v>
+        <v>0.10378293489521014</v>
       </c>
     </row>
     <row r="31">
@@ -5898,7 +5898,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.016150815770577833</v>
+        <v>-0.016194529329907063</v>
       </c>
     </row>
     <row r="32">
@@ -5906,7 +5906,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.12255921790233051</v>
+        <v>-0.12260112879585505</v>
       </c>
     </row>
     <row r="33">
@@ -5914,7 +5914,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.13609985739317265</v>
+        <v>-0.1361048860235234</v>
       </c>
     </row>
     <row r="34">
@@ -5922,7 +5922,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.04864076582847008</v>
+        <v>-0.04857467359335029</v>
       </c>
     </row>
     <row r="35">
@@ -5930,7 +5930,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07248495554306832</v>
+        <v>0.07260274377489292</v>
       </c>
     </row>
     <row r="36">
@@ -5938,7 +5938,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>0.13697503143152073</v>
+        <v>0.13704475533538735</v>
       </c>
     </row>
     <row r="37">
@@ -5946,7 +5946,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0994123525510275</v>
+        <v>0.09933629789815593</v>
       </c>
     </row>
     <row r="38">
@@ -5954,7 +5954,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.008886745283320584</v>
+        <v>-0.009100618506566542</v>
       </c>
     </row>
     <row r="39">
@@ -5962,7 +5962,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.10620785059271484</v>
+        <v>-0.10643067361539743</v>
       </c>
     </row>
     <row r="40">
@@ -5970,7 +5970,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.12265925064993294</v>
+        <v>-0.1226977201358472</v>
       </c>
     </row>
     <row r="41">
@@ -5978,7 +5978,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.05045296851920162</v>
+        <v>-0.05016457517253139</v>
       </c>
     </row>
     <row r="42">
@@ -5986,7 +5986,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05398777162249318</v>
+        <v>0.05451230625677648</v>
       </c>
     </row>
     <row r="43">
@@ -5994,7 +5994,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.11456911058466873</v>
+        <v>0.11493148570026292</v>
       </c>
     </row>
     <row r="44">
@@ -6002,7 +6002,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09128396743504798</v>
+        <v>0.09103763671420269</v>
       </c>
     </row>
     <row r="45">
@@ -6010,7 +6010,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006138352421068922</v>
+        <v>0.005223935516296934</v>
       </c>
     </row>
     <row r="46">
@@ -6018,7 +6018,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07705361955418434</v>
+        <v>-0.07810853902587403</v>
       </c>
     </row>
     <row r="47">
@@ -6026,7 +6026,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.10076953534409037</v>
+        <v>-0.10108135104057321</v>
       </c>
     </row>
     <row r="48">
@@ -6034,7 +6034,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.05325571917262773</v>
+        <v>-0.05217924572470965</v>
       </c>
     </row>
     <row r="49">
@@ -6042,7 +6042,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.027496810271001492</v>
+        <v>0.029662023158407214</v>
       </c>
     </row>
     <row r="50">
@@ -6050,7 +6050,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08437441962763019</v>
+        <v>0.08613938099665702</v>
       </c>
     </row>
     <row r="51">
@@ -6058,7 +6058,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08172896253418922</v>
+        <v>0.08123828875538232</v>
       </c>
     </row>
     <row r="52">
@@ -6066,7 +6066,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.027117602097518984</v>
+        <v>0.023750065080700242</v>
       </c>
     </row>
     <row r="53">
@@ -6074,7 +6074,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.03838454123683232</v>
+        <v>-0.04291939845357058</v>
       </c>
     </row>
     <row r="54">
@@ -6082,7 +6082,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.07081373911117335</v>
+        <v>-0.07302964815586105</v>
       </c>
     </row>
     <row r="55">
@@ -6090,7 +6090,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05198778608631281</v>
+        <v>-0.04889707310861026</v>
       </c>
     </row>
     <row r="56">
@@ -6098,7 +6098,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0019823517703605855</v>
+        <v>0.010035512089054014</v>
       </c>
     </row>
     <row r="57">
@@ -6106,7 +6106,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.054670190675099616</v>
+        <v>0.06271032693546329</v>
       </c>
     </row>
     <row r="58">
@@ -6114,7 +6114,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07418309091247355</v>
+        <v>0.07493233096708615</v>
       </c>
     </row>
     <row r="59">
@@ -6122,7 +6122,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.052490104439748456</v>
+        <v>0.04202642258340634</v>
       </c>
     </row>
     <row r="60">
@@ -6130,7 +6130,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00784208676426651</v>
+        <v>-0.009293309951980508</v>
       </c>
     </row>
     <row r="61">
@@ -6138,7 +6138,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.029004911668924178</v>
+        <v>-0.04018852018986948</v>
       </c>
     </row>
     <row r="62">
@@ -6146,7 +6146,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.034553316877024426</v>
+        <v>-0.02702045532275135</v>
       </c>
     </row>
     <row r="63">
@@ -6154,7 +6154,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.006276885714677495</v>
+        <v>0.020893762109834468</v>
       </c>
     </row>
     <row r="64">
@@ -6162,7 +6162,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03705519954121324</v>
+        <v>0.06580092940148648</v>
       </c>
     </row>
     <row r="65">
@@ -6170,7 +6170,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06790924843374166</v>
+        <v>0.0704538057844247</v>
       </c>
     </row>
     <row r="66">
@@ -6178,7 +6178,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06826746216417932</v>
+        <v>0.03326433650348343</v>
       </c>
     </row>
     <row r="67">
@@ -6186,7 +6186,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041058643322084504</v>
+        <v>-0.006542901625544689</v>
       </c>
     </row>
     <row r="68">
@@ -6194,7 +6194,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.006308168396177784</v>
+        <v>-0.007035611669316258</v>
       </c>
     </row>
     <row r="69">
@@ -6202,7 +6202,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.01354536715875087</v>
+        <v>0.028164377282811223</v>
       </c>
     </row>
     <row r="70">
@@ -6210,7 +6210,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.008923928149235382</v>
+        <v>0.048985606575679595</v>
       </c>
     </row>
     <row r="71">
@@ -6218,7 +6218,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.012247833316111664</v>
+        <v>0.023717059329883897</v>
       </c>
     </row>
     <row r="72">
@@ -6226,7 +6226,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03306494071791449</v>
+        <v>-0.010279890551068097</v>
       </c>
     </row>
     <row r="73">
@@ -6234,7 +6234,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.039184965087066835</v>
+        <v>-0.002627791743078276</v>
       </c>
     </row>
     <row r="74">
@@ -6242,7 +6242,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02498291133213234</v>
+        <v>0.02545622669568937</v>
       </c>
     </row>
     <row r="75">
@@ -6250,7 +6250,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.004513559132150659</v>
+        <v>0.015077527325017798</v>
       </c>
     </row>
     <row r="76">
@@ -6258,7 +6258,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.034391189180049284</v>
+        <v>-0.026818988362409552</v>
       </c>
     </row>
     <row r="77">
@@ -6266,7 +6266,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.04825453228035207</v>
+        <v>-0.039389702870247144</v>
       </c>
     </row>
     <row r="78">
@@ -6274,7 +6274,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.03831494952323958</v>
+        <v>-0.01315449919512175</v>
       </c>
     </row>
     <row r="79">
@@ -6282,7 +6282,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.00944260865365989</v>
+        <v>0.003041801209408738</v>
       </c>
     </row>
     <row r="80">
@@ -6290,7 +6290,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0.018843127951204602</v>
+        <v>-0.014619749884074437</v>
       </c>
     </row>
     <row r="81">
@@ -6298,7 +6298,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02107978582341497</v>
+        <v>-0.035939909610202395</v>
       </c>
     </row>
     <row r="82">
@@ -6306,7 +6306,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.011973357225916767</v>
+        <v>-0.03391385897560309</v>
       </c>
     </row>
     <row r="83">
@@ -6314,7 +6314,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.06077195842376844</v>
+        <v>-0.020144413214657576</v>
       </c>
     </row>
     <row r="84">
@@ -6322,7 +6322,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.08910563558688787</v>
+        <v>-0.019598617526812016</v>
       </c>
     </row>
     <row r="85">
@@ -6330,7 +6330,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.07121178886196915</v>
+        <v>-0.03416475839300165</v>
       </c>
     </row>
     <row r="86">
@@ -6338,7 +6338,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.013704396454773275</v>
+        <v>-0.041767843582083186</v>
       </c>
     </row>
     <row r="87">
@@ -6346,7 +6346,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04409836103668766</v>
+        <v>-0.024789463193212666</v>
       </c>
     </row>
     <row r="88">
@@ -6354,7 +6354,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05933314047449044</v>
+        <v>0.007685303257927777</v>
       </c>
     </row>
     <row r="89">
@@ -6362,7 +6362,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01976612381446971</v>
+        <v>0.026308697442930285</v>
       </c>
     </row>
     <row r="90">
@@ -6370,7 +6370,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.046590463331237224</v>
+        <v>0.009819774787396228</v>
       </c>
     </row>
     <row r="91">
@@ -6378,7 +6378,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.09101628182928645</v>
+        <v>-0.03246012430034085</v>
       </c>
     </row>
     <row r="92">
@@ -6386,7 +6386,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0790721675298797</v>
+        <v>-0.06505247404333922</v>
       </c>
     </row>
     <row r="93">
@@ -6394,7 +6394,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.01622695235484009</v>
+        <v>-0.05514799584447852</v>
       </c>
     </row>
     <row r="94">
@@ -6402,7 +6402,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0547696210179237</v>
+        <v>-0.0024851791918439644</v>
       </c>
     </row>
     <row r="95">
@@ -6410,7 +6410,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08436100103533961</v>
+        <v>0.055884169431557155</v>
       </c>
     </row>
     <row r="96">
@@ -6418,7 +6418,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.05183672763790387</v>
+        <v>0.0729384898783227</v>
       </c>
     </row>
     <row r="97">
@@ -6426,7 +6426,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.020005663694849796</v>
+        <v>0.030255412731552925</v>
       </c>
     </row>
     <row r="98">
@@ -6434,7 +6434,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.08065805677752938</v>
+        <v>-0.043807468815237144</v>
       </c>
     </row>
     <row r="99">
@@ -6442,7 +6442,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.08714349346406139</v>
+        <v>-0.09264829030743031</v>
       </c>
     </row>
     <row r="100">
@@ -6450,7 +6450,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.03418268496672447</v>
+        <v>-0.07470887913366384</v>
       </c>
     </row>
     <row r="101">
@@ -6458,7 +6458,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.041860819502233054</v>
+        <v>0.0017481273688966417</v>
       </c>
     </row>
     <row r="102">
@@ -6466,7 +6466,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08825631298885453</v>
+        <v>0.08138782093505903</v>
       </c>
     </row>
     <row r="103">
@@ -6474,7 +6474,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.07277875815493065</v>
+        <v>0.10265819743277885</v>
       </c>
     </row>
     <row r="104">
@@ -6482,7 +6482,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>0.006198623987042498</v>
+        <v>0.04594736868423044</v>
       </c>
     </row>
     <row r="105">
@@ -6490,7 +6490,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.06517917293649292</v>
+        <v>-0.0489599904445257</v>
       </c>
     </row>
     <row r="106">
@@ -6498,7 +6498,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.09168734685542264</v>
+        <v>-0.11100428246917829</v>
       </c>
     </row>
     <row r="107">
@@ -6506,7 +6506,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.05480672576030617</v>
+        <v>-0.091509616693471</v>
       </c>
     </row>
     <row r="108">
@@ -6514,7 +6514,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01997433752621835</v>
+        <v>-0.002510517800442963</v>
       </c>
     </row>
     <row r="109">
@@ -6522,7 +6522,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.08084121013371409</v>
+        <v>0.09057647512311395</v>
       </c>
     </row>
     <row r="110">
@@ -6530,7 +6530,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08564832914336053</v>
+        <v>0.11770674130376496</v>
       </c>
     </row>
     <row r="111">
@@ -6538,7 +6538,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.031182570480304244</v>
+        <v>0.057523692067873396</v>
       </c>
     </row>
     <row r="112">
@@ -6546,7 +6546,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.04465799971676068</v>
+        <v>-0.04584947200427584</v>
       </c>
     </row>
     <row r="113">
@@ -6554,7 +6554,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.08922022349961516</v>
+        <v>-0.115505032522733</v>
       </c>
     </row>
     <row r="114">
@@ -6562,7 +6562,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.07163085241776627</v>
+        <v>-0.0993669011965656</v>
       </c>
     </row>
     <row r="115">
@@ -6570,7 +6570,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.004114269100274476</v>
+        <v>-0.009262946524091945</v>
       </c>
     </row>
     <row r="116">
@@ -6578,7 +6578,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06656219793577513</v>
+        <v>0.08787852176462711</v>
       </c>
     </row>
     <row r="117">
@@ -6586,7 +6586,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.09157418829108457</v>
+        <v>0.12024185519322651</v>
       </c>
     </row>
     <row r="118">
@@ -6594,7 +6594,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.05397504766390806</v>
+        <v>0.06493028482071496</v>
       </c>
     </row>
     <row r="119">
@@ -6602,7 +6602,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.019635145132956063</v>
+        <v>-0.035591400122466615</v>
       </c>
     </row>
     <row r="120">
@@ -6610,7 +6610,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.07778791655395564</v>
+        <v>-0.1060275617608068</v>
       </c>
     </row>
     <row r="121">
@@ -6618,7 +6618,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.08001375128033344</v>
+        <v>-0.09453644507994977</v>
       </c>
     </row>
     <row r="122">
@@ -6626,7 +6626,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02479201631944556</v>
+        <v>-0.010656817634857855</v>
       </c>
     </row>
     <row r="123">
@@ -6634,7 +6634,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.04960853672661943</v>
+        <v>0.08235791832948099</v>
       </c>
     </row>
     <row r="124">
@@ -6642,7 +6642,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09187760001765098</v>
+        <v>0.11523176827477394</v>
       </c>
     </row>
     <row r="125">
@@ -6650,7 +6650,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.07384400492345812</v>
+        <v>0.06570194915773693</v>
       </c>
     </row>
     <row r="126">
@@ -6658,7 +6658,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.010164570388890687</v>
+        <v>-0.0248885510765155</v>
       </c>
     </row>
     <row r="127">
@@ -6666,7 +6666,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.052773141109539914</v>
+        <v>-0.0841186475874754</v>
       </c>
     </row>
     <row r="128">
@@ -6674,7 +6674,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.07015305254841328</v>
+        <v>-0.06478955871549232</v>
       </c>
     </row>
     <row r="129">
@@ -6682,7 +6682,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03005763372097215</v>
+        <v>0.017702267914289433</v>
       </c>
     </row>
     <row r="130">
@@ -6690,7 +6690,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03896099065175031</v>
+        <v>0.09501182234747915</v>
       </c>
     </row>
     <row r="131">
@@ -6698,7 +6698,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.08858633954615282</v>
+        <v>0.10135162231646908</v>
       </c>
     </row>
     <row r="132">
@@ -6706,7 +6706,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0864804977104193</v>
+        <v>0.035146939919978235</v>
       </c>
     </row>
     <row r="133">
@@ -6714,7 +6714,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.039601703016459586</v>
+        <v>-0.03628541134006096</v>
       </c>
     </row>
     <row r="134">
@@ -6722,7 +6722,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.014158923614040508</v>
+        <v>-0.03993297418964333</v>
       </c>
     </row>
     <row r="135">
@@ -6730,7 +6730,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.036096021461355765</v>
+        <v>0.026454765631614738</v>
       </c>
     </row>
     <row r="136">
@@ -6738,7 +6738,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.01459978519422746</v>
+        <v>0.08278980659298175</v>
       </c>
     </row>
     <row r="137">
@@ -6746,7 +6746,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.029792008117424523</v>
+        <v>0.05595603165593819</v>
       </c>
     </row>
     <row r="138">
@@ -6754,7 +6754,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>0.06310884798562903</v>
+        <v>-0.01592884941952823</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6783,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3622798257837786E-6</v>
+        <v>3.3623024603371585E-6</v>
       </c>
     </row>
     <row r="3">
@@ -6791,7 +6791,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.6300906747096508E-5</v>
+        <v>2.6300932482134093E-5</v>
       </c>
     </row>
     <row r="4">
@@ -6799,7 +6799,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0786609457801967E-5</v>
+        <v>4.0786606337395E-5</v>
       </c>
     </row>
     <row r="5">
@@ -6807,7 +6807,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5351779572718337E-5</v>
+        <v>4.5351747977572376E-5</v>
       </c>
     </row>
     <row r="6">
@@ -6815,7 +6815,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0830695366047466E-5</v>
+        <v>3.083070076775778E-5</v>
       </c>
     </row>
     <row r="7">
@@ -6823,7 +6823,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2901392414609993E-5</v>
+        <v>1.2901414844941589E-5</v>
       </c>
     </row>
     <row r="8">
@@ -6831,7 +6831,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>2.616600308031067E-6</v>
+        <v>2.616606105050909E-6</v>
       </c>
     </row>
     <row r="9">
@@ -6839,7 +6839,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>8.271826760214026E-6</v>
+        <v>8.271840653810412E-6</v>
       </c>
     </row>
     <row r="10">
@@ -6847,7 +6847,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>3.181526347762138E-5</v>
+        <v>3.181519949125587E-5</v>
       </c>
     </row>
     <row r="11">
@@ -6855,7 +6855,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>5.975535700860353E-5</v>
+        <v>5.9755301584536525E-5</v>
       </c>
     </row>
     <row r="12">
@@ -6863,7 +6863,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>6.835602152666617E-5</v>
+        <v>6.835600761535315E-5</v>
       </c>
     </row>
     <row r="13">
@@ -6871,7 +6871,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5.375712515839366E-5</v>
+        <v>5.375731417826345E-5</v>
       </c>
     </row>
     <row r="14">
@@ -6879,7 +6879,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>3.684762815639154E-5</v>
+        <v>3.684785276384906E-5</v>
       </c>
     </row>
     <row r="15">
@@ -6887,7 +6887,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.883925709030406E-5</v>
+        <v>2.8839221243509766E-5</v>
       </c>
     </row>
     <row r="16">
@@ -6895,7 +6895,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>3.459836689079203E-5</v>
+        <v>3.459831463702717E-5</v>
       </c>
     </row>
     <row r="17">
@@ -6903,7 +6903,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6.130822363178273E-5</v>
+        <v>6.130841093819258E-5</v>
       </c>
     </row>
     <row r="18">
@@ -6911,7 +6911,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>9.944517629175999E-5</v>
+        <v>9.944527637439111E-5</v>
       </c>
     </row>
     <row r="19">
@@ -6919,7 +6919,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.1312905841738004E-4</v>
+        <v>1.1312859543116758E-4</v>
       </c>
     </row>
     <row r="20">
@@ -6927,7 +6927,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>9.667263548993465E-5</v>
+        <v>9.66723014949872E-5</v>
       </c>
     </row>
     <row r="21">
@@ -6935,7 +6935,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>8.776235664233495E-5</v>
+        <v>8.776294811233133E-5</v>
       </c>
     </row>
     <row r="22">
@@ -6943,7 +6943,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>9.513532891321294E-5</v>
+        <v>9.513576229612862E-5</v>
       </c>
     </row>
     <row r="23">
@@ -6951,7 +6951,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0926670807433665E-4</v>
+        <v>1.0926686186935948E-4</v>
       </c>
     </row>
     <row r="24">
@@ -6959,7 +6959,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>1.4594407925729662E-4</v>
+        <v>1.4594490197518523E-4</v>
       </c>
     </row>
     <row r="25">
@@ -6967,7 +6967,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>2.0189484963861962E-4</v>
+        <v>2.018949106685601E-4</v>
       </c>
     </row>
     <row r="26">
@@ -6975,7 +6975,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>2.1701568206040637E-4</v>
+        <v>2.170111523029442E-4</v>
       </c>
     </row>
     <row r="27">
@@ -6983,7 +6983,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1.890713096654288E-4</v>
+        <v>1.8906572626048283E-4</v>
       </c>
     </row>
     <row r="28">
@@ -6991,7 +6991,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>1.9622643066206526E-4</v>
+        <v>1.9622988970395747E-4</v>
       </c>
     </row>
     <row r="29">
@@ -6999,7 +6999,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>2.4340747573815502E-4</v>
+        <v>2.4341544575276236E-4</v>
       </c>
     </row>
     <row r="30">
@@ -7007,7 +7007,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>2.8599437161720985E-4</v>
+        <v>2.8599862302163166E-4</v>
       </c>
     </row>
     <row r="31">
@@ -7015,7 +7015,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.5127559405367806E-4</v>
+        <v>3.512882996209439E-4</v>
       </c>
     </row>
     <row r="32">
@@ -7023,7 +7023,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>4.4428673393435714E-4</v>
+        <v>4.442913709031833E-4</v>
       </c>
     </row>
     <row r="33">
@@ -7031,7 +7031,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4.6132522614344507E-4</v>
+        <v>4.6127222994165235E-4</v>
       </c>
     </row>
     <row r="34">
@@ -7039,7 +7039,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>4.0974431750507033E-4</v>
+        <v>4.096753170634532E-4</v>
       </c>
     </row>
     <row r="35">
@@ -7047,7 +7047,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>4.443275604392412E-4</v>
+        <v>4.443589347040088E-4</v>
       </c>
     </row>
     <row r="36">
@@ -7055,7 +7055,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>5.73879346613855E-4</v>
+        <v>5.739617657583582E-4</v>
       </c>
     </row>
     <row r="37">
@@ -7063,7 +7063,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>6.906583449543557E-4</v>
+        <v>6.907031231652976E-4</v>
       </c>
     </row>
     <row r="38">
@@ -7071,7 +7071,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>8.254844885751481E-4</v>
+        <v>8.256133171577608E-4</v>
       </c>
     </row>
     <row r="39">
@@ -7079,7 +7079,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>9.964820690002729E-4</v>
+        <v>9.965431649709138E-4</v>
       </c>
     </row>
     <row r="40">
@@ -7087,7 +7087,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0010375749970710356</v>
+        <v>0.001037055262664223</v>
       </c>
     </row>
     <row r="41">
@@ -7095,7 +7095,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>9.594995780647821E-4</v>
+        <v>9.58757908573054E-4</v>
       </c>
     </row>
     <row r="42">
@@ -7103,7 +7103,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0010352519392405517</v>
+        <v>0.0010354201540103247</v>
       </c>
     </row>
     <row r="43">
@@ -7111,7 +7111,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0013154900541088096</v>
+        <v>0.001316340649018097</v>
       </c>
     </row>
     <row r="44">
@@ -7119,7 +7119,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001604807811551491</v>
+        <v>0.001605424531575699</v>
       </c>
     </row>
     <row r="45">
@@ -7127,7 +7127,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001897148509253612</v>
+        <v>0.0018983491034311138</v>
       </c>
     </row>
     <row r="46">
@@ -7135,7 +7135,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002234957635678517</v>
+        <v>0.002235790572041431</v>
       </c>
     </row>
     <row r="47">
@@ -7143,7 +7143,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0023952675711164414</v>
+        <v>0.002391210193794572</v>
       </c>
     </row>
     <row r="48">
@@ -7151,7 +7151,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0023443525217126545</v>
+        <v>0.0023371395903556817</v>
       </c>
     </row>
     <row r="49">
@@ -7159,7 +7159,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0024832363992247516</v>
+        <v>0.002482680936421543</v>
       </c>
     </row>
     <row r="50">
@@ -7167,7 +7167,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0030049088593663334</v>
+        <v>0.0030124034795604407</v>
       </c>
     </row>
     <row r="51">
@@ -7175,7 +7175,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003650659176699457</v>
+        <v>0.0036582216762449794</v>
       </c>
     </row>
     <row r="52">
@@ -7183,7 +7183,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0042899394003051445</v>
+        <v>0.004300271364042259</v>
       </c>
     </row>
     <row r="53">
@@ -7191,7 +7191,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004999798336184233</v>
+        <v>0.005011064499504899</v>
       </c>
     </row>
     <row r="54">
@@ -7199,7 +7199,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005580933633871729</v>
+        <v>0.005561235128989697</v>
       </c>
     </row>
     <row r="55">
@@ -7207,7 +7207,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005850946829217194</v>
+        <v>0.0057941470251785315</v>
       </c>
     </row>
     <row r="56">
@@ -7215,7 +7215,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006200201842535259</v>
+        <v>0.006170917206968872</v>
       </c>
     </row>
     <row r="57">
@@ -7223,7 +7223,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00708417215365148</v>
+        <v>0.007120954718566635</v>
       </c>
     </row>
     <row r="58">
@@ -7231,7 +7231,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008343831651197408</v>
+        <v>0.00839701506926318</v>
       </c>
     </row>
     <row r="59">
@@ -7239,7 +7239,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.009649092175525112</v>
+        <v>0.009718610198830876</v>
       </c>
     </row>
     <row r="60">
@@ -7247,7 +7247,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.011102479355341394</v>
+        <v>0.011246173232554783</v>
       </c>
     </row>
     <row r="61">
@@ -7255,7 +7255,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01279558909843876</v>
+        <v>0.01287675276383315</v>
       </c>
     </row>
     <row r="62">
@@ -7263,7 +7263,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>0.014419076840167678</v>
+        <v>0.014237790527928234</v>
       </c>
     </row>
     <row r="63">
@@ -7271,7 +7271,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01588125087540997</v>
+        <v>0.015585429658122598</v>
       </c>
     </row>
     <row r="64">
@@ -7279,7 +7279,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01751627878901432</v>
+        <v>0.017261340437872832</v>
       </c>
     </row>
     <row r="65">
@@ -7287,7 +7287,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.019260581124781545</v>
+        <v>0.018911935005246017</v>
       </c>
     </row>
     <row r="66">
@@ -7295,7 +7295,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02064505481901781</v>
+        <v>0.02076388375342039</v>
       </c>
     </row>
     <row r="67">
@@ -7303,7 +7303,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.021980422037275623</v>
+        <v>0.023524988475498915</v>
       </c>
     </row>
     <row r="68">
@@ -7311,7 +7311,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.024280099528196958</v>
+        <v>0.02637005838834003</v>
       </c>
     </row>
     <row r="69">
@@ -7319,7 +7319,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02765149409755709</v>
+        <v>0.02808517537874649</v>
       </c>
     </row>
     <row r="70">
@@ -7327,7 +7327,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>0.030948608172029674</v>
+        <v>0.02864449079999508</v>
       </c>
     </row>
     <row r="71">
@@ -7335,7 +7335,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03293887460440214</v>
+        <v>0.029532361172463998</v>
       </c>
     </row>
     <row r="72">
@@ -7343,7 +7343,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03294424178893638</v>
+        <v>0.03193914896801502</v>
       </c>
     </row>
     <row r="73">
@@ -7351,7 +7351,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03113882520247548</v>
+        <v>0.03323915213753002</v>
       </c>
     </row>
     <row r="74">
@@ -7359,7 +7359,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.029075132480577543</v>
+        <v>0.03182121337272747</v>
       </c>
     </row>
     <row r="75">
@@ -7367,7 +7367,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02887817368435816</v>
+        <v>0.030329230259721885</v>
       </c>
     </row>
     <row r="76">
@@ -7375,7 +7375,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>0.030905847232475067</v>
+        <v>0.031463168563903736</v>
       </c>
     </row>
     <row r="77">
@@ -7383,7 +7383,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03299454142959329</v>
+        <v>0.03257027745121841</v>
       </c>
     </row>
     <row r="78">
@@ -7391,7 +7391,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03283368076104542</v>
+        <v>0.030988796524912585</v>
       </c>
     </row>
     <row r="79">
@@ -7399,7 +7399,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03021676381045046</v>
+        <v>0.028281438968425037</v>
       </c>
     </row>
     <row r="80">
@@ -7407,7 +7407,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02645624263758778</v>
+        <v>0.026262104934338018</v>
       </c>
     </row>
     <row r="81">
@@ -7415,7 +7415,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.022974201956470482</v>
+        <v>0.024790302819123325</v>
       </c>
     </row>
     <row r="82">
@@ -7423,7 +7423,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>0.020974562341344788</v>
+        <v>0.022914170120749675</v>
       </c>
     </row>
     <row r="83">
@@ -7431,7 +7431,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.020441381696134873</v>
+        <v>0.02074352771074117</v>
       </c>
     </row>
     <row r="84">
@@ -7439,7 +7439,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>0.019568666189115666</v>
+        <v>0.018805834892891466</v>
       </c>
     </row>
     <row r="85">
@@ -7447,7 +7447,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>0.017236913336919905</v>
+        <v>0.017115029460886673</v>
       </c>
     </row>
     <row r="86">
@@ -7455,7 +7455,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01460084264421045</v>
+        <v>0.015308148954598881</v>
       </c>
     </row>
     <row r="87">
@@ -7463,7 +7463,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.012780016336824247</v>
+        <v>0.013340715327435205</v>
       </c>
     </row>
     <row r="88">
@@ -7471,7 +7471,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0.011451322309575443</v>
+        <v>0.011627916127357743</v>
       </c>
     </row>
     <row r="89">
@@ -7479,7 +7479,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01035990585868595</v>
+        <v>0.010353922732001315</v>
       </c>
     </row>
     <row r="90">
@@ -7487,7 +7487,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>0.009618004836128968</v>
+        <v>0.009390602756941292</v>
       </c>
     </row>
     <row r="91">
@@ -7495,7 +7495,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.008678158529586201</v>
+        <v>0.008588426163432649</v>
       </c>
     </row>
     <row r="92">
@@ -7503,7 +7503,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.007162795072542221</v>
+        <v>0.007632979223353514</v>
       </c>
     </row>
     <row r="93">
@@ -7511,7 +7511,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.005810937670365404</v>
+        <v>0.006396337442227397</v>
       </c>
     </row>
     <row r="94">
@@ -7519,7 +7519,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>0.005230800081008405</v>
+        <v>0.00536180843470479</v>
       </c>
     </row>
     <row r="95">
@@ -7527,7 +7527,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005010180879239442</v>
+        <v>0.004872288535174803</v>
       </c>
     </row>
     <row r="96">
@@ -7535,7 +7535,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.004704003814114466</v>
+        <v>0.004619355657214753</v>
       </c>
     </row>
     <row r="97">
@@ -7543,7 +7543,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.004401076008395117</v>
+        <v>0.004350065347196861</v>
       </c>
     </row>
     <row r="98">
@@ -7551,7 +7551,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>0.004043710978546974</v>
+        <v>0.004105267774119129</v>
       </c>
     </row>
     <row r="99">
@@ -7559,7 +7559,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>0.003410650303369449</v>
+        <v>0.003687578385001849</v>
       </c>
     </row>
     <row r="100">
@@ -7567,7 +7567,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>0.002752095282295282</v>
+        <v>0.0029936655837442135</v>
       </c>
     </row>
     <row r="101">
@@ -7575,7 +7575,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002469703853711351</v>
+        <v>0.0024733715961093193</v>
       </c>
     </row>
     <row r="102">
@@ -7583,7 +7583,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0024687540729775694</v>
+        <v>0.002402782224424408</v>
       </c>
     </row>
     <row r="103">
@@ -7591,7 +7591,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0024472257900145337</v>
+        <v>0.002465658840734112</v>
       </c>
     </row>
     <row r="104">
@@ -7599,7 +7599,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>0.002393871890084813</v>
+        <v>0.00245447564048691</v>
       </c>
     </row>
     <row r="105">
@@ -7607,7 +7607,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>0.002349382689692477</v>
+        <v>0.0024804056001862286</v>
       </c>
     </row>
     <row r="106">
@@ -7615,7 +7615,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0021652926834132367</v>
+        <v>0.002395657909995997</v>
       </c>
     </row>
     <row r="107">
@@ -7623,7 +7623,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0018594510102110406</v>
+        <v>0.0020285183718998998</v>
       </c>
     </row>
     <row r="108">
@@ -7631,7 +7631,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0017114330696712443</v>
+        <v>0.0017390659831055628</v>
       </c>
     </row>
     <row r="109">
@@ -7639,7 +7639,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001814551023401984</v>
+        <v>0.0018512986997564322</v>
       </c>
     </row>
     <row r="110">
@@ -7647,7 +7647,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001979864983682636</v>
+        <v>0.002117177339417007</v>
       </c>
     </row>
     <row r="111">
@@ -7655,7 +7655,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0021244518350414933</v>
+        <v>0.0023130088383471335</v>
       </c>
     </row>
     <row r="112">
@@ -7663,7 +7663,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0.002305733978374194</v>
+        <v>0.0025756437702066128</v>
       </c>
     </row>
     <row r="113">
@@ -7671,7 +7671,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0024039895057910645</v>
+        <v>0.0027573482256370413</v>
       </c>
     </row>
     <row r="114">
@@ -7679,7 +7679,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>0.002293616678013454</v>
+        <v>0.0025500915937419085</v>
       </c>
     </row>
     <row r="115">
@@ -7687,7 +7687,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002215719568103959</v>
+        <v>0.002334965883406033</v>
       </c>
     </row>
     <row r="116">
@@ -7695,7 +7695,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0024586206816473674</v>
+        <v>0.002656744956609421</v>
       </c>
     </row>
     <row r="117">
@@ -7703,7 +7703,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0029072027321544137</v>
+        <v>0.00327343258126436</v>
       </c>
     </row>
     <row r="118">
@@ -7711,7 +7711,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>0.003355032557705162</v>
+        <v>0.0038081875653410715</v>
       </c>
     </row>
     <row r="119">
@@ -7719,7 +7719,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0038623908067982444</v>
+        <v>0.004455518333906496</v>
       </c>
     </row>
     <row r="120">
@@ -7727,7 +7727,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>0.004346405855013395</v>
+        <v>0.005042576600280671</v>
       </c>
     </row>
     <row r="121">
@@ -7735,7 +7735,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.004482043895734711</v>
+        <v>0.004997334410392021</v>
       </c>
     </row>
     <row r="122">
@@ -7743,7 +7743,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0044574048058128955</v>
+        <v>0.004842903367906173</v>
       </c>
     </row>
     <row r="123">
@@ -7751,7 +7751,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.004906725489845091</v>
+        <v>0.0055632449475106266</v>
       </c>
     </row>
     <row r="124">
@@ -7759,7 +7759,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.005879138909100431</v>
+        <v>0.006826663726953414</v>
       </c>
     </row>
     <row r="125">
@@ -7767,7 +7767,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.006910739366106245</v>
+        <v>0.00796729008826548</v>
       </c>
     </row>
     <row r="126">
@@ -7775,7 +7775,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.00801707497094321</v>
+        <v>0.009374237401160591</v>
       </c>
     </row>
     <row r="127">
@@ -7783,7 +7783,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.009331059227096015</v>
+        <v>0.010853657799047312</v>
       </c>
     </row>
     <row r="128">
@@ -7791,7 +7791,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01031484113842616</v>
+        <v>0.011479038942878148</v>
       </c>
     </row>
     <row r="129">
@@ -7799,7 +7799,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.010837442831539475</v>
+        <v>0.012044974714131853</v>
       </c>
     </row>
     <row r="130">
@@ -7807,7 +7807,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.011802952414908505</v>
+        <v>0.01363451967976024</v>
       </c>
     </row>
     <row r="131">
@@ -7815,7 +7815,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01348293949034451</v>
+        <v>0.015323272370509766</v>
       </c>
     </row>
     <row r="132">
@@ -7823,7 +7823,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.015068024327718171</v>
+        <v>0.01708930231716274</v>
       </c>
     </row>
     <row r="133">
@@ -7831,7 +7831,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.016642039050719586</v>
+        <v>0.02011339278580255</v>
       </c>
     </row>
     <row r="134">
@@ -7839,7 +7839,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.019159747847356176</v>
+        <v>0.023002200542963414</v>
       </c>
     </row>
     <row r="135">
@@ -7847,7 +7847,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.022313946001441706</v>
+        <v>0.024580746269774956</v>
       </c>
     </row>
     <row r="136">
@@ -7855,7 +7855,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>0.02500542324385551</v>
+        <v>0.025229041592274622</v>
       </c>
     </row>
     <row r="137">
@@ -7863,7 +7863,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.02690805063937818</v>
+        <v>0.025610569820266188</v>
       </c>
     </row>
     <row r="138">
@@ -7871,7 +7871,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>0.027738136960190944</v>
+        <v>0.02866648756134915</v>
       </c>
     </row>
   </sheetData>
@@ -7892,7 +7892,7 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>9.926167350636332E-23</v>
+        <v>9.595295105615121E-23</v>
       </c>
     </row>
     <row r="2">
@@ -7900,7 +7900,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.1077243682266628E-4</v>
+        <v>-1.1077229689013113E-4</v>
       </c>
     </row>
     <row r="3">
@@ -7908,7 +7908,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.916545589337022E-5</v>
+        <v>-3.916559265120256E-5</v>
       </c>
     </row>
     <row r="4">
@@ -7916,7 +7916,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.3753254124089875E-5</v>
+        <v>-2.3753435966444556E-5</v>
       </c>
     </row>
     <row r="5">
@@ -7924,7 +7924,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.18119254890546E-5</v>
+        <v>-2.181187061626116E-5</v>
       </c>
     </row>
     <row r="6">
@@ -7932,7 +7932,7 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.085485768830078E-6</v>
+        <v>-5.085310636570725E-6</v>
       </c>
     </row>
     <row r="7">
@@ -7940,7 +7940,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.022206834358367E-6</v>
+        <v>8.022189119955174E-6</v>
       </c>
     </row>
     <row r="8">
@@ -7948,7 +7948,7 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0041845386366944E-5</v>
+        <v>1.0041957514412408E-5</v>
       </c>
     </row>
     <row r="9">
@@ -7956,7 +7956,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.8779724323914293E-5</v>
+        <v>2.8779863680403437E-5</v>
       </c>
     </row>
     <row r="10">
@@ -7964,7 +7964,7 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>4.899439388045102E-5</v>
+        <v>4.899541612137748E-5</v>
       </c>
     </row>
     <row r="11">
@@ -7972,7 +7972,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0166354992855782E-5</v>
+        <v>3.01669554747053E-5</v>
       </c>
     </row>
     <row r="12">
@@ -7980,7 +7980,7 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.5950222812332207E-5</v>
+        <v>-2.5950704108506015E-5</v>
       </c>
     </row>
     <row r="13">
@@ -7988,7 +7988,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.604915905267047E-5</v>
+        <v>-4.604687150658587E-5</v>
       </c>
     </row>
     <row r="14">
@@ -7996,7 +7996,7 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.103815661493415E-5</v>
+        <v>-2.103978730637994E-5</v>
       </c>
     </row>
     <row r="15">
@@ -8004,7 +8004,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.9457535425551366E-6</v>
+        <v>2.9433602499218134E-6</v>
       </c>
     </row>
     <row r="16">
@@ -8012,7 +8012,7 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>3.661205638467487E-5</v>
+        <v>3.661417187105856E-5</v>
       </c>
     </row>
     <row r="17">
@@ -8020,7 +8020,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.775844633045865E-5</v>
+        <v>7.775942521083677E-5</v>
       </c>
     </row>
     <row r="18">
@@ -8028,7 +8028,7 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>6.69850847090318E-5</v>
+        <v>6.698510675574221E-5</v>
       </c>
     </row>
     <row r="19">
@@ -8036,7 +8036,7 @@
         <v>9.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.2345248401824683E-5</v>
+        <v>-1.2347245617536071E-5</v>
       </c>
     </row>
     <row r="20">
@@ -8044,7 +8044,7 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.959025131715864E-5</v>
+        <v>-3.9591539413715925E-5</v>
       </c>
     </row>
     <row r="21">
@@ -8052,7 +8052,7 @@
         <v>10.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8652380205769546E-6</v>
+        <v>1.863345233565155E-6</v>
       </c>
     </row>
     <row r="22">
@@ -8060,7 +8060,7 @@
         <v>10.5</v>
       </c>
       <c r="B22" t="n">
-        <v>2.1730547201474965E-5</v>
+        <v>2.172994423364798E-5</v>
       </c>
     </row>
     <row r="23">
@@ -8068,7 +8068,7 @@
         <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4.4124122378995704E-5</v>
+        <v>4.4128194928366446E-5</v>
       </c>
     </row>
     <row r="24">
@@ -8076,7 +8076,7 @@
         <v>11.5</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0675622514345877E-4</v>
+        <v>1.0676211298632878E-4</v>
       </c>
     </row>
     <row r="25">
@@ -8084,7 +8084,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" t="n">
-        <v>9.339676949284727E-5</v>
+        <v>9.33937177754987E-5</v>
       </c>
     </row>
     <row r="26">
@@ -8092,7 +8092,7 @@
         <v>12.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.339457886438953E-5</v>
+        <v>-3.3400949591656974E-5</v>
       </c>
     </row>
     <row r="27">
@@ -8100,7 +8100,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.315430754800919E-5</v>
+        <v>-4.315087876208455E-5</v>
       </c>
     </row>
     <row r="28">
@@ -8108,7 +8108,7 @@
         <v>13.5</v>
       </c>
       <c r="B28" t="n">
-        <v>7.135386095582442E-5</v>
+        <v>7.138057628448214E-5</v>
       </c>
     </row>
     <row r="29">
@@ -8116,7 +8116,7 @@
         <v>14.0</v>
       </c>
       <c r="B29" t="n">
-        <v>9.518191183483959E-5</v>
+        <v>9.518766411913217E-5</v>
       </c>
     </row>
     <row r="30">
@@ -8124,7 +8124,7 @@
         <v>14.5</v>
       </c>
       <c r="B30" t="n">
-        <v>8.843112154113602E-5</v>
+        <v>8.844288246380614E-5</v>
       </c>
     </row>
     <row r="31">
@@ -8132,7 +8132,7 @@
         <v>15.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.801360181611069E-4</v>
+        <v>1.8016496075360004E-4</v>
       </c>
     </row>
     <row r="32">
@@ -8140,7 +8140,7 @@
         <v>15.5</v>
       </c>
       <c r="B32" t="n">
-        <v>1.4583857422944662E-4</v>
+        <v>1.4577513511428644E-4</v>
       </c>
     </row>
     <row r="33">
@@ -8148,7 +8148,7 @@
         <v>16.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.774012204956175E-5</v>
+        <v>-7.786288796263842E-5</v>
       </c>
     </row>
     <row r="34">
@@ -8156,7 +8156,7 @@
         <v>16.5</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.151449345642487E-5</v>
+        <v>-6.141864217383291E-5</v>
       </c>
     </row>
     <row r="35">
@@ -8164,7 +8164,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" t="n">
-        <v>2.0116609320051582E-4</v>
+        <v>2.0139466076906832E-4</v>
       </c>
     </row>
     <row r="36">
@@ -8172,7 +8172,7 @@
         <v>17.5</v>
       </c>
       <c r="B36" t="n">
-        <v>2.673923313630669E-4</v>
+        <v>2.6734618579768183E-4</v>
       </c>
     </row>
     <row r="37">
@@ -8180,7 +8180,7 @@
         <v>18.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2.1754784901211905E-4</v>
+        <v>2.175598765371545E-4</v>
       </c>
     </row>
     <row r="38">
@@ -8188,7 +8188,7 @@
         <v>18.5</v>
       </c>
       <c r="B38" t="n">
-        <v>3.386490764229889E-4</v>
+        <v>3.388790863815969E-4</v>
       </c>
     </row>
     <row r="39">
@@ -8196,7 +8196,7 @@
         <v>19.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2.709946850071655E-4</v>
+        <v>2.7030460134716474E-4</v>
       </c>
     </row>
     <row r="40">
@@ -8204,7 +8204,7 @@
         <v>19.5</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.0848427460308944E-4</v>
+        <v>-1.097693535856055E-4</v>
       </c>
     </row>
     <row r="41">
@@ -8212,7 +8212,7 @@
         <v>20.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-8.846088069191973E-5</v>
+        <v>-8.768895639127877E-5</v>
       </c>
     </row>
     <row r="42">
@@ -8220,7 +8220,7 @@
         <v>20.5</v>
       </c>
       <c r="B42" t="n">
-        <v>4.0923120361425385E-4</v>
+        <v>4.1151413766073413E-4</v>
       </c>
     </row>
     <row r="43">
@@ -8228,7 +8228,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6.237553283062739E-4</v>
+        <v>6.238406189778169E-4</v>
       </c>
     </row>
     <row r="44">
@@ -8236,7 +8236,7 @@
         <v>21.5</v>
       </c>
       <c r="B44" t="n">
-        <v>5.390419337131136E-4</v>
+        <v>5.38910213294761E-4</v>
       </c>
     </row>
     <row r="45">
@@ -8244,7 +8244,7 @@
         <v>22.0</v>
       </c>
       <c r="B45" t="n">
-        <v>6.633806576350347E-4</v>
+        <v>6.652588655260918E-4</v>
       </c>
     </row>
     <row r="46">
@@ -8252,7 +8252,7 @@
         <v>22.5</v>
       </c>
       <c r="B46" t="n">
-        <v>5.902520979577397E-4</v>
+        <v>5.850764786473467E-4</v>
       </c>
     </row>
     <row r="47">
@@ -8260,7 +8260,7 @@
         <v>23.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2.6088946961220225E-5</v>
+        <v>1.4097773166266588E-5</v>
       </c>
     </row>
     <row r="48">
@@ -8268,7 +8268,7 @@
         <v>23.5</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.463109431286763E-5</v>
+        <v>-6.16103430636768E-5</v>
       </c>
     </row>
     <row r="49">
@@ -8276,7 +8276,7 @@
         <v>24.0</v>
       </c>
       <c r="B49" t="n">
-        <v>6.957950794386068E-4</v>
+        <v>7.159375402110781E-4</v>
       </c>
     </row>
     <row r="50">
@@ -8284,7 +8284,7 @@
         <v>24.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.001274997362165388</v>
+        <v>0.0012826719576171312</v>
       </c>
     </row>
     <row r="51">
@@ -8292,7 +8292,7 @@
         <v>25.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0012611112286932985</v>
+        <v>0.0012589754181348283</v>
       </c>
     </row>
     <row r="52">
@@ -8300,7 +8300,7 @@
         <v>25.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0013490035368413135</v>
+        <v>0.0013617974343615154</v>
       </c>
     </row>
     <row r="53">
@@ -8308,7 +8308,7 @@
         <v>26.0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0014102292541804183</v>
+        <v>0.0013870187853770803</v>
       </c>
     </row>
     <row r="54">
@@ -8316,7 +8316,7 @@
         <v>26.5</v>
       </c>
       <c r="B54" t="n">
-        <v>8.245172351185004E-4</v>
+        <v>7.323031044189212E-4</v>
       </c>
     </row>
     <row r="55">
@@ -8324,7 +8324,7 @@
         <v>27.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4.093970089288723E-4</v>
+        <v>3.837811710841454E-4</v>
       </c>
     </row>
     <row r="56">
@@ -8332,7 +8332,7 @@
         <v>27.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001171610808076835</v>
+        <v>0.0012978107144200682</v>
       </c>
     </row>
     <row r="57">
@@ -8340,7 +8340,7 @@
         <v>28.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0022893873057300354</v>
+        <v>0.0023875303274465028</v>
       </c>
     </row>
     <row r="58">
@@ -8348,7 +8348,7 @@
         <v>28.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0026098898278936015</v>
+        <v>0.0025987640895737446</v>
       </c>
     </row>
     <row r="59">
@@ -8356,7 +8356,7 @@
         <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0026685351302812104</v>
+        <v>0.0027798280104605485</v>
       </c>
     </row>
     <row r="60">
@@ -8364,7 +8364,7 @@
         <v>29.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0031963185232025443</v>
+        <v>0.003299346855148813</v>
       </c>
     </row>
     <row r="61">
@@ -8372,7 +8372,7 @@
         <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003441324769428786</v>
+        <v>0.0030485393758064626</v>
       </c>
     </row>
     <row r="62">
@@ -8380,7 +8380,7 @@
         <v>30.5</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0030098836293440067</v>
+        <v>0.0025071682363680195</v>
       </c>
     </row>
     <row r="63">
@@ -8388,7 +8388,7 @@
         <v>31.0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002991470357216838</v>
+        <v>0.003045776019431249</v>
       </c>
     </row>
     <row r="64">
@@ -8396,7 +8396,7 @@
         <v>31.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.003531777178786702</v>
+        <v>0.0034695623413616033</v>
       </c>
     </row>
     <row r="65">
@@ -8404,7 +8404,7 @@
         <v>32.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003231265205137408</v>
+        <v>0.003200359606922716</v>
       </c>
     </row>
     <row r="66">
@@ -8412,7 +8412,7 @@
         <v>32.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0024099968095422013</v>
+        <v>0.0045615045165226615</v>
       </c>
     </row>
     <row r="67">
@@ -8420,7 +8420,7 @@
         <v>33.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0033440375069471733</v>
+        <v>0.006136421380193518</v>
       </c>
     </row>
     <row r="68">
@@ -8428,7 +8428,7 @@
         <v>33.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00590259089940889</v>
+        <v>0.004779495628299194</v>
       </c>
     </row>
     <row r="69">
@@ -8436,7 +8436,7 @@
         <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007145812368979794</v>
+        <v>0.002073645137360941</v>
       </c>
     </row>
     <row r="70">
@@ -8444,7 +8444,7 @@
         <v>34.5</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005614573748938094</v>
+        <v>6.742175784868572E-4</v>
       </c>
     </row>
     <row r="71">
@@ -8452,7 +8452,7 @@
         <v>35.0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0021169303519121747</v>
+        <v>0.0035225770016316686</v>
       </c>
     </row>
     <row r="72">
@@ -8460,7 +8460,7 @@
         <v>35.5</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.0020671595061919233</v>
+        <v>0.004944365078595016</v>
       </c>
     </row>
     <row r="73">
@@ -8468,7 +8468,7 @@
         <v>36.0</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.004613758634630843</v>
+        <v>-3.8481041325024123E-4</v>
       </c>
     </row>
     <row r="74">
@@ -8476,7 +8476,7 @@
         <v>36.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.002834318021480643</v>
+        <v>-0.004267577693059525</v>
       </c>
     </row>
     <row r="75">
@@ -8484,7 +8484,7 @@
         <v>37.0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0022029122243670007</v>
+        <v>-4.877593559659947E-4</v>
       </c>
     </row>
     <row r="76">
@@ -8492,7 +8492,7 @@
         <v>37.5</v>
       </c>
       <c r="B76" t="n">
-        <v>0.005085031107199082</v>
+        <v>0.0038354437103613227</v>
       </c>
     </row>
     <row r="77">
@@ -8500,7 +8500,7 @@
         <v>38.0</v>
       </c>
       <c r="B77" t="n">
-        <v>0.002406912070997603</v>
+        <v>-4.6573364178369045E-4</v>
       </c>
     </row>
     <row r="78">
@@ -8508,7 +8508,7 @@
         <v>38.5</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.003084716967944347</v>
+        <v>-0.005124071530029946</v>
       </c>
     </row>
     <row r="79">
@@ -8516,7 +8516,7 @@
         <v>39.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.006883017084618346</v>
+        <v>-0.005037609942360349</v>
       </c>
     </row>
     <row r="80">
@@ -8524,7 +8524,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.0076931698743102775</v>
+        <v>-0.0031303311631618396</v>
       </c>
     </row>
     <row r="81">
@@ -8532,7 +8532,7 @@
         <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.005794119985065087</v>
+        <v>-0.003167066569527395</v>
       </c>
     </row>
     <row r="82">
@@ -8540,7 +8540,7 @@
         <v>40.5</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0021649710246702345</v>
+        <v>-0.0042543188235953785</v>
       </c>
     </row>
     <row r="83">
@@ -8548,7 +8548,7 @@
         <v>41.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.815854902080291E-4</v>
+        <v>-0.004218876097281365</v>
       </c>
     </row>
     <row r="84">
@@ -8556,7 +8556,7 @@
         <v>41.5</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0032599553344997787</v>
+        <v>-0.003534031746099436</v>
       </c>
     </row>
     <row r="85">
@@ -8564,7 +8564,7 @@
         <v>42.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.00556687445254071</v>
+        <v>-0.003379861365275441</v>
       </c>
     </row>
     <row r="86">
@@ -8572,7 +8572,7 @@
         <v>42.5</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.004543648768596165</v>
+        <v>-0.003871192830020205</v>
       </c>
     </row>
     <row r="87">
@@ -8580,7 +8580,7 @@
         <v>43.0</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.0029321328582932946</v>
+        <v>-0.003824337118275497</v>
       </c>
     </row>
     <row r="88">
@@ -8588,7 +8588,7 @@
         <v>43.5</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0024763370324156603</v>
+        <v>-0.002965867491941672</v>
       </c>
     </row>
     <row r="89">
@@ -8596,7 +8596,7 @@
         <v>44.0</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0017904284911685279</v>
+        <v>-0.002190224769015491</v>
       </c>
     </row>
     <row r="90">
@@ -8604,7 +8604,7 @@
         <v>44.5</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001402625077542358</v>
+        <v>-0.0016982999634357254</v>
       </c>
     </row>
     <row r="91">
@@ -8612,7 +8612,7 @@
         <v>45.0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.0025326614294606717</v>
+        <v>-0.0016293171076961473</v>
       </c>
     </row>
     <row r="92">
@@ -8620,7 +8620,7 @@
         <v>45.5</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0032197860168107573</v>
+        <v>-0.0022610917942553436</v>
       </c>
     </row>
     <row r="93">
@@ -8628,7 +8628,7 @@
         <v>46.0</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.0019450902894881576</v>
+        <v>-0.0024876615882104213</v>
       </c>
     </row>
     <row r="94">
@@ -8636,7 +8636,7 @@
         <v>46.5</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.638731622235663E-4</v>
+        <v>-0.0015114346656730777</v>
       </c>
     </row>
     <row r="95">
@@ -8644,7 +8644,7 @@
         <v>47.0</v>
       </c>
       <c r="B95" t="n">
-        <v>-4.912279441120241E-4</v>
+        <v>-5.868359266198756E-4</v>
       </c>
     </row>
     <row r="96">
@@ -8652,7 +8652,7 @@
         <v>47.5</v>
       </c>
       <c r="B96" t="n">
-        <v>-6.65527041762279E-4</v>
+        <v>-5.196078191054725E-4</v>
       </c>
     </row>
     <row r="97">
@@ -8660,7 +8660,7 @@
         <v>48.0</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.656167024438263E-4</v>
+        <v>-5.117553983362928E-4</v>
       </c>
     </row>
     <row r="98">
@@ -8668,7 +8668,7 @@
         <v>48.5</v>
       </c>
       <c r="B98" t="n">
-        <v>-9.719710064880855E-4</v>
+        <v>-5.505734186472275E-4</v>
       </c>
     </row>
     <row r="99">
@@ -8676,7 +8676,7 @@
         <v>49.0</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0014604247542508036</v>
+        <v>-0.001181321726904872</v>
       </c>
     </row>
     <row r="100">
@@ -8684,7 +8684,7 @@
         <v>49.5</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.0010090758821466317</v>
+        <v>-0.001407585363560965</v>
       </c>
     </row>
     <row r="101">
@@ -8692,7 +8692,7 @@
         <v>50.0</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.6766377011037315E-4</v>
+        <v>-5.616911886714766E-4</v>
       </c>
     </row>
     <row r="102">
@@ -8700,7 +8700,7 @@
         <v>50.5</v>
       </c>
       <c r="B102" t="n">
-        <v>3.969830049595526E-5</v>
+        <v>1.3783330641344545E-4</v>
       </c>
     </row>
     <row r="103">
@@ -8708,7 +8708,7 @@
         <v>51.0</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.1564791450816809E-4</v>
+        <v>3.5077581921611046E-5</v>
       </c>
     </row>
     <row r="104">
@@ -8716,7 +8716,7 @@
         <v>51.5</v>
       </c>
       <c r="B104" t="n">
-        <v>-7.14425896041967E-5</v>
+        <v>-1.0020399854241716E-5</v>
       </c>
     </row>
     <row r="105">
@@ -8724,7 +8724,7 @@
         <v>52.0</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.7493434962897873E-4</v>
+        <v>5.270858832248304E-5</v>
       </c>
     </row>
     <row r="106">
@@ -8732,7 +8732,7 @@
         <v>52.5</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.606269938685821E-4</v>
+        <v>-4.796626920640424E-4</v>
       </c>
     </row>
     <row r="107">
@@ -8740,7 +8740,7 @@
         <v>53.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.477554400041369E-4</v>
+        <v>-8.403191461644087E-4</v>
       </c>
     </row>
     <row r="108">
@@ -8748,7 +8748,7 @@
         <v>53.5</v>
       </c>
       <c r="B108" t="n">
-        <v>-9.216766216758338E-6</v>
+        <v>-1.83346066047043E-4</v>
       </c>
     </row>
     <row r="109">
@@ -8756,7 +8756,7 @@
         <v>54.0</v>
       </c>
       <c r="B109" t="n">
-        <v>3.3947407263021194E-4</v>
+        <v>5.190354224202356E-4</v>
       </c>
     </row>
     <row r="110">
@@ -8764,7 +8764,7 @@
         <v>54.5</v>
       </c>
       <c r="B110" t="n">
-        <v>2.928769061315305E-4</v>
+        <v>4.524224238835065E-4</v>
       </c>
     </row>
     <row r="111">
@@ -8772,7 +8772,7 @@
         <v>55.0</v>
       </c>
       <c r="B111" t="n">
-        <v>3.2191228779323016E-4</v>
+        <v>4.122505996391067E-4</v>
       </c>
     </row>
     <row r="112">
@@ -8780,7 +8780,7 @@
         <v>55.5</v>
       </c>
       <c r="B112" t="n">
-        <v>3.556537311426111E-4</v>
+        <v>5.85779754014092E-4</v>
       </c>
     </row>
     <row r="113">
@@ -8788,7 +8788,7 @@
         <v>56.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.4111455194024692E-5</v>
+        <v>-7.84581524091189E-6</v>
       </c>
     </row>
     <row r="114">
@@ -8796,7 +8796,7 @@
         <v>56.5</v>
       </c>
       <c r="B114" t="n">
-        <v>-3.221206819231067E-4</v>
+        <v>-6.68990927678806E-4</v>
       </c>
     </row>
     <row r="115">
@@ -8804,7 +8804,7 @@
         <v>57.0</v>
       </c>
       <c r="B115" t="n">
-        <v>1.2843905796494458E-4</v>
+        <v>3.757038453080556E-5</v>
       </c>
     </row>
     <row r="116">
@@ -8812,7 +8812,7 @@
         <v>57.5</v>
       </c>
       <c r="B116" t="n">
-        <v>7.891826094458103E-4</v>
+        <v>0.001135703998184033</v>
       </c>
     </row>
     <row r="117">
@@ -8820,7 +8820,7 @@
         <v>58.0</v>
       </c>
       <c r="B117" t="n">
-        <v>9.176280731684149E-4</v>
+        <v>0.001166919022462279</v>
       </c>
     </row>
     <row r="118">
@@ -8828,7 +8828,7 @@
         <v>58.5</v>
       </c>
       <c r="B118" t="n">
-        <v>9.15589288185734E-4</v>
+        <v>0.0010886365849379792</v>
       </c>
     </row>
     <row r="119">
@@ -8836,7 +8836,7 @@
         <v>59.0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0010951034601293268</v>
+        <v>0.0014521295554082501</v>
       </c>
     </row>
     <row r="120">
@@ -8844,7 +8844,7 @@
         <v>59.5</v>
       </c>
       <c r="B120" t="n">
-        <v>6.939573209545048E-4</v>
+        <v>6.2420614704021E-4</v>
       </c>
     </row>
     <row r="121">
@@ -8852,7 +8852,7 @@
         <v>60.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-8.805703771290465E-5</v>
+        <v>-6.021535824751785E-4</v>
       </c>
     </row>
     <row r="122">
@@ -8860,7 +8860,7 @@
         <v>60.5</v>
       </c>
       <c r="B122" t="n">
-        <v>2.5095799948006306E-4</v>
+        <v>4.0267341031689617E-4</v>
       </c>
     </row>
     <row r="123">
@@ -8868,7 +8868,7 @@
         <v>61.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001559691326541206</v>
+        <v>0.0023184315337202526</v>
       </c>
     </row>
     <row r="124">
@@ -8876,7 +8876,7 @@
         <v>61.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0021241416526335336</v>
+        <v>0.002436069155029858</v>
       </c>
     </row>
     <row r="125">
@@ -8884,7 +8884,7 @@
         <v>62.0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.002025476861555517</v>
+        <v>0.0023479350978914057</v>
       </c>
     </row>
     <row r="126">
@@ -8892,7 +8892,7 @@
         <v>62.5</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0024908704203324703</v>
+        <v>0.003235140943419575</v>
       </c>
     </row>
     <row r="127">
@@ -8900,7 +8900,7 @@
         <v>63.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.002531488956076226</v>
+        <v>0.002233338496055779</v>
       </c>
     </row>
     <row r="128">
@@ -8908,7 +8908,7 @@
         <v>63.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0013232150244049032</v>
+        <v>6.035739584085344E-4</v>
       </c>
     </row>
     <row r="129">
@@ -8916,7 +8916,7 @@
         <v>64.0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.001151101302875977</v>
+        <v>0.0021541619241148987</v>
       </c>
     </row>
     <row r="130">
@@ -8924,7 +8924,7 @@
         <v>64.5</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0028274546657202707</v>
+        <v>0.003733843342951293</v>
       </c>
     </row>
     <row r="131">
@@ -8932,7 +8932,7 @@
         <v>65.0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.003522136378018016</v>
+        <v>0.002977612266386806</v>
       </c>
     </row>
     <row r="132">
@@ -8940,7 +8940,7 @@
         <v>65.5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0028445386708095106</v>
+        <v>0.004719251629784661</v>
       </c>
     </row>
     <row r="133">
@@ -8948,7 +8948,7 @@
         <v>66.0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0038802864253352247</v>
+        <v>0.006730730454332844</v>
       </c>
     </row>
     <row r="134">
@@ -8956,7 +8956,7 @@
         <v>66.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0.006058093674990631</v>
+        <v>0.004373420402360932</v>
       </c>
     </row>
     <row r="135">
@@ -8964,7 +8964,7 @@
         <v>67.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.006111996941021094</v>
+        <v>0.0022161985591748093</v>
       </c>
     </row>
     <row r="136">
@@ -8972,7 +8972,7 @@
         <v>67.5</v>
       </c>
       <c r="B136" t="n">
-        <v>0.004595868784965447</v>
+        <v>3.4301044575575125E-4</v>
       </c>
     </row>
     <row r="137">
@@ -8980,7 +8980,7 @@
         <v>68.0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0029337407434117274</v>
+        <v>0.002620888898312723</v>
       </c>
     </row>
     <row r="138">
@@ -8988,7 +8988,7 @@
         <v>68.5</v>
       </c>
       <c r="B138" t="n">
-        <v>1.875144942254079E-4</v>
+        <v>0.008751542751053</v>
       </c>
     </row>
   </sheetData>
